--- a/30 設計/20 プログラム設計/20 クラス設計/10 backend/10 controller/AttendancesController.xlsx
+++ b/30 設計/20 プログラム設計/20 クラス設計/10 backend/10 controller/AttendancesController.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="180">
   <si>
     <t>システム名称</t>
     <phoneticPr fontId="5"/>
@@ -1007,6 +1007,32 @@
   </si>
   <si>
     <t>Result[n].id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OrgAttendance.init実行</t>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>引数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>：</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>POST[attendance_id]</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -8049,7 +8075,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA151"/>
+  <dimension ref="A1:BA154"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -12468,190 +12494,190 @@
       <c r="AZ80" s="21"/>
       <c r="BA80" s="22"/>
     </row>
-    <row r="81" spans="1:53">
-      <c r="A81" s="25"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E81" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="21"/>
-      <c r="M81" s="21"/>
-      <c r="N81" s="21"/>
-      <c r="O81" s="21"/>
-      <c r="P81" s="21"/>
-      <c r="Q81" s="21"/>
-      <c r="R81" s="21"/>
-      <c r="S81" s="21"/>
-      <c r="T81" s="21"/>
-      <c r="U81" s="21"/>
-      <c r="V81" s="21"/>
-      <c r="W81" s="21"/>
-      <c r="X81" s="21"/>
-      <c r="Y81" s="21"/>
-      <c r="Z81" s="21"/>
-      <c r="AA81" s="21"/>
-      <c r="AB81" s="21"/>
-      <c r="AC81" s="21"/>
-      <c r="AD81" s="21"/>
-      <c r="AE81" s="21"/>
-      <c r="AF81" s="21"/>
-      <c r="AG81" s="21"/>
-      <c r="AH81" s="21"/>
-      <c r="AI81" s="21"/>
-      <c r="AJ81" s="21"/>
-      <c r="AK81" s="21"/>
-      <c r="AL81" s="21"/>
-      <c r="AM81" s="21"/>
-      <c r="AN81" s="21"/>
-      <c r="AO81" s="21"/>
-      <c r="AP81" s="21"/>
-      <c r="AQ81" s="21"/>
-      <c r="AR81" s="21"/>
-      <c r="AS81" s="21"/>
-      <c r="AT81" s="21"/>
-      <c r="AU81" s="21"/>
-      <c r="AV81" s="21"/>
-      <c r="AW81" s="21"/>
-      <c r="AX81" s="21"/>
-      <c r="AY81" s="21"/>
-      <c r="AZ81" s="21"/>
-      <c r="BA81" s="22"/>
-    </row>
-    <row r="82" spans="1:53">
-      <c r="A82" s="25"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I82" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="21"/>
-      <c r="O82" s="21"/>
-      <c r="P82" s="21"/>
-      <c r="Q82" s="21"/>
-      <c r="R82" s="21"/>
-      <c r="S82" s="21"/>
-      <c r="T82" s="21"/>
-      <c r="U82" s="21"/>
-      <c r="V82" s="21"/>
-      <c r="W82" s="21"/>
-      <c r="X82" s="21"/>
-      <c r="Y82" s="21"/>
-      <c r="Z82" s="21"/>
-      <c r="AA82" s="21"/>
-      <c r="AB82" s="21"/>
-      <c r="AC82" s="21"/>
-      <c r="AD82" s="21"/>
-      <c r="AE82" s="21"/>
-      <c r="AF82" s="21"/>
-      <c r="AG82" s="21"/>
-      <c r="AH82" s="21"/>
-      <c r="AI82" s="21"/>
-      <c r="AJ82" s="21"/>
-      <c r="AK82" s="21"/>
-      <c r="AL82" s="21"/>
-      <c r="AM82" s="21"/>
-      <c r="AN82" s="21"/>
-      <c r="AO82" s="21"/>
-      <c r="AP82" s="21"/>
-      <c r="AQ82" s="21"/>
-      <c r="AR82" s="21"/>
-      <c r="AS82" s="21"/>
-      <c r="AT82" s="21"/>
-      <c r="AU82" s="21"/>
-      <c r="AV82" s="21"/>
-      <c r="AW82" s="21"/>
-      <c r="AX82" s="21"/>
-      <c r="AY82" s="21"/>
-      <c r="AZ82" s="21"/>
-      <c r="BA82" s="22"/>
-    </row>
-    <row r="83" spans="1:53">
-      <c r="A83" s="25"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="21"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="21"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="21"/>
-      <c r="O83" s="21"/>
-      <c r="P83" s="21"/>
-      <c r="Q83" s="21"/>
-      <c r="R83" s="21"/>
-      <c r="S83" s="21"/>
-      <c r="T83" s="21"/>
-      <c r="U83" s="21"/>
-      <c r="V83" s="21"/>
-      <c r="W83" s="21"/>
-      <c r="X83" s="21"/>
-      <c r="Y83" s="21"/>
-      <c r="Z83" s="21"/>
-      <c r="AA83" s="21"/>
-      <c r="AB83" s="21"/>
-      <c r="AC83" s="21"/>
-      <c r="AD83" s="21"/>
-      <c r="AE83" s="21"/>
-      <c r="AF83" s="21"/>
-      <c r="AG83" s="21"/>
-      <c r="AH83" s="21"/>
-      <c r="AI83" s="21"/>
-      <c r="AJ83" s="21"/>
-      <c r="AK83" s="21"/>
-      <c r="AL83" s="21"/>
-      <c r="AM83" s="21"/>
-      <c r="AN83" s="21"/>
-      <c r="AO83" s="21"/>
-      <c r="AP83" s="21"/>
-      <c r="AQ83" s="21"/>
-      <c r="AR83" s="21"/>
-      <c r="AS83" s="21"/>
-      <c r="AT83" s="21"/>
-      <c r="AU83" s="21"/>
-      <c r="AV83" s="21"/>
-      <c r="AW83" s="21"/>
-      <c r="AX83" s="21"/>
-      <c r="AY83" s="21"/>
-      <c r="AZ83" s="21"/>
-      <c r="BA83" s="22"/>
+    <row r="81" spans="1:53" s="60" customFormat="1">
+      <c r="A81" s="53"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="49"/>
+      <c r="D81" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="E81" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="F81" s="49"/>
+      <c r="G81" s="49"/>
+      <c r="H81" s="49"/>
+      <c r="I81" s="49"/>
+      <c r="J81" s="49"/>
+      <c r="K81" s="49"/>
+      <c r="L81" s="49"/>
+      <c r="M81" s="49"/>
+      <c r="N81" s="49"/>
+      <c r="O81" s="49"/>
+      <c r="P81" s="49"/>
+      <c r="Q81" s="49"/>
+      <c r="R81" s="49"/>
+      <c r="S81" s="49"/>
+      <c r="T81" s="49"/>
+      <c r="U81" s="49"/>
+      <c r="V81" s="49"/>
+      <c r="W81" s="49"/>
+      <c r="X81" s="49"/>
+      <c r="Y81" s="49"/>
+      <c r="Z81" s="49"/>
+      <c r="AA81" s="49"/>
+      <c r="AB81" s="49"/>
+      <c r="AC81" s="49"/>
+      <c r="AD81" s="49"/>
+      <c r="AE81" s="49"/>
+      <c r="AF81" s="49"/>
+      <c r="AG81" s="49"/>
+      <c r="AH81" s="49"/>
+      <c r="AI81" s="49"/>
+      <c r="AJ81" s="49"/>
+      <c r="AK81" s="49"/>
+      <c r="AL81" s="49"/>
+      <c r="AM81" s="49"/>
+      <c r="AN81" s="49"/>
+      <c r="AO81" s="49"/>
+      <c r="AP81" s="49"/>
+      <c r="AQ81" s="49"/>
+      <c r="AR81" s="49"/>
+      <c r="AS81" s="49"/>
+      <c r="AT81" s="49"/>
+      <c r="AU81" s="49"/>
+      <c r="AV81" s="49"/>
+      <c r="AW81" s="49"/>
+      <c r="AX81" s="49"/>
+      <c r="AY81" s="49"/>
+      <c r="AZ81" s="49"/>
+      <c r="BA81" s="50"/>
+    </row>
+    <row r="82" spans="1:53" s="60" customFormat="1">
+      <c r="A82" s="53"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="G82" s="49"/>
+      <c r="H82" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="I82" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="J82" s="49"/>
+      <c r="K82" s="49"/>
+      <c r="L82" s="49"/>
+      <c r="M82" s="49"/>
+      <c r="N82" s="49"/>
+      <c r="O82" s="49"/>
+      <c r="P82" s="49"/>
+      <c r="Q82" s="49"/>
+      <c r="R82" s="49"/>
+      <c r="S82" s="49"/>
+      <c r="T82" s="49"/>
+      <c r="U82" s="49"/>
+      <c r="V82" s="49"/>
+      <c r="W82" s="49"/>
+      <c r="X82" s="49"/>
+      <c r="Y82" s="49"/>
+      <c r="Z82" s="49"/>
+      <c r="AA82" s="49"/>
+      <c r="AB82" s="49"/>
+      <c r="AC82" s="49"/>
+      <c r="AD82" s="49"/>
+      <c r="AE82" s="49"/>
+      <c r="AF82" s="49"/>
+      <c r="AG82" s="49"/>
+      <c r="AH82" s="49"/>
+      <c r="AI82" s="49"/>
+      <c r="AJ82" s="49"/>
+      <c r="AK82" s="49"/>
+      <c r="AL82" s="49"/>
+      <c r="AM82" s="49"/>
+      <c r="AN82" s="49"/>
+      <c r="AO82" s="49"/>
+      <c r="AP82" s="49"/>
+      <c r="AQ82" s="49"/>
+      <c r="AR82" s="49"/>
+      <c r="AS82" s="49"/>
+      <c r="AT82" s="49"/>
+      <c r="AU82" s="49"/>
+      <c r="AV82" s="49"/>
+      <c r="AW82" s="49"/>
+      <c r="AX82" s="49"/>
+      <c r="AY82" s="49"/>
+      <c r="AZ82" s="49"/>
+      <c r="BA82" s="50"/>
+    </row>
+    <row r="83" spans="1:53" s="60" customFormat="1">
+      <c r="A83" s="53"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="49"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="49"/>
+      <c r="J83" s="49"/>
+      <c r="K83" s="49"/>
+      <c r="L83" s="49"/>
+      <c r="M83" s="49"/>
+      <c r="N83" s="49"/>
+      <c r="O83" s="49"/>
+      <c r="P83" s="49"/>
+      <c r="Q83" s="49"/>
+      <c r="R83" s="49"/>
+      <c r="S83" s="49"/>
+      <c r="T83" s="49"/>
+      <c r="U83" s="49"/>
+      <c r="V83" s="49"/>
+      <c r="W83" s="49"/>
+      <c r="X83" s="49"/>
+      <c r="Y83" s="49"/>
+      <c r="Z83" s="49"/>
+      <c r="AA83" s="49"/>
+      <c r="AB83" s="49"/>
+      <c r="AC83" s="49"/>
+      <c r="AD83" s="49"/>
+      <c r="AE83" s="49"/>
+      <c r="AF83" s="49"/>
+      <c r="AG83" s="49"/>
+      <c r="AH83" s="49"/>
+      <c r="AI83" s="49"/>
+      <c r="AJ83" s="49"/>
+      <c r="AK83" s="49"/>
+      <c r="AL83" s="49"/>
+      <c r="AM83" s="49"/>
+      <c r="AN83" s="49"/>
+      <c r="AO83" s="49"/>
+      <c r="AP83" s="49"/>
+      <c r="AQ83" s="49"/>
+      <c r="AR83" s="49"/>
+      <c r="AS83" s="49"/>
+      <c r="AT83" s="49"/>
+      <c r="AU83" s="49"/>
+      <c r="AV83" s="49"/>
+      <c r="AW83" s="49"/>
+      <c r="AX83" s="49"/>
+      <c r="AY83" s="49"/>
+      <c r="AZ83" s="49"/>
+      <c r="BA83" s="50"/>
     </row>
     <row r="84" spans="1:53">
       <c r="A84" s="25"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
       <c r="D84" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
@@ -12709,14 +12735,14 @@
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
       <c r="F85" s="21" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="G85" s="21"/>
       <c r="H85" s="21" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="I85" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J85" s="21"/>
       <c r="K85" s="21"/>
@@ -12823,10 +12849,10 @@
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
       <c r="D87" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F87" s="21"/>
       <c r="G87" s="21"/>
@@ -12891,7 +12917,7 @@
         <v>107</v>
       </c>
       <c r="I88" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J88" s="21"/>
       <c r="K88" s="21"/>
@@ -12998,10 +13024,10 @@
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
       <c r="D90" s="21" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
@@ -13066,7 +13092,7 @@
         <v>107</v>
       </c>
       <c r="I91" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J91" s="21"/>
       <c r="K91" s="21"/>
@@ -13173,10 +13199,10 @@
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
       <c r="D93" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F93" s="21"/>
       <c r="G93" s="21"/>
@@ -13241,7 +13267,7 @@
         <v>107</v>
       </c>
       <c r="I94" s="21" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="J94" s="21"/>
       <c r="K94" s="21"/>
@@ -13348,10 +13374,10 @@
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
       <c r="D96" s="21" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F96" s="21"/>
       <c r="G96" s="21"/>
@@ -13406,16 +13432,17 @@
       <c r="A97" s="25"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
       <c r="E97" s="21"/>
       <c r="F97" s="21" t="s">
         <v>95</v>
       </c>
       <c r="G97" s="21"/>
       <c r="H97" s="21" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I97" s="21" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J97" s="21"/>
       <c r="K97" s="21"/>
@@ -13466,6 +13493,7 @@
       <c r="A98" s="25"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
       <c r="E98" s="21"/>
       <c r="F98" s="21"/>
       <c r="G98" s="21"/>
@@ -13520,11 +13548,11 @@
       <c r="A99" s="25"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
-      <c r="D99" s="39" t="s">
-        <v>128</v>
+      <c r="D99" s="21" t="s">
+        <v>114</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F99" s="21"/>
       <c r="G99" s="21"/>
@@ -13579,12 +13607,17 @@
       <c r="A100" s="25"/>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
-      <c r="D100" s="21"/>
       <c r="E100" s="21"/>
-      <c r="F100" s="21"/>
+      <c r="F100" s="21" t="s">
+        <v>95</v>
+      </c>
       <c r="G100" s="21"/>
-      <c r="H100" s="21"/>
-      <c r="I100" s="21"/>
+      <c r="H100" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I100" s="21" t="s">
+        <v>102</v>
+      </c>
       <c r="J100" s="21"/>
       <c r="K100" s="21"/>
       <c r="L100" s="21"/>
@@ -13631,358 +13664,359 @@
       <c r="BA100" s="22"/>
     </row>
     <row r="101" spans="1:53">
-      <c r="A101" s="24"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="26"/>
-      <c r="I101" s="26"/>
-      <c r="J101" s="26"/>
-      <c r="K101" s="26"/>
-      <c r="L101" s="26"/>
-      <c r="M101" s="26"/>
-      <c r="N101" s="26"/>
-      <c r="O101" s="26"/>
-      <c r="P101" s="26"/>
-      <c r="Q101" s="26"/>
-      <c r="R101" s="26"/>
-      <c r="S101" s="26"/>
-      <c r="T101" s="26"/>
-      <c r="U101" s="26"/>
-      <c r="V101" s="26"/>
-      <c r="W101" s="26"/>
-      <c r="X101" s="26"/>
-      <c r="Y101" s="26"/>
-      <c r="Z101" s="26"/>
-      <c r="AA101" s="26"/>
-      <c r="AB101" s="26"/>
-      <c r="AC101" s="26"/>
-      <c r="AD101" s="26"/>
-      <c r="AE101" s="26"/>
-      <c r="AF101" s="26"/>
-      <c r="AG101" s="26"/>
-      <c r="AH101" s="26"/>
-      <c r="AI101" s="26"/>
-      <c r="AJ101" s="26"/>
-      <c r="AK101" s="26"/>
-      <c r="AL101" s="26"/>
-      <c r="AM101" s="26"/>
-      <c r="AN101" s="26"/>
-      <c r="AO101" s="26"/>
-      <c r="AP101" s="26"/>
-      <c r="AQ101" s="26"/>
-      <c r="AR101" s="26"/>
-      <c r="AS101" s="26"/>
-      <c r="AT101" s="26"/>
-      <c r="AU101" s="26"/>
-      <c r="AV101" s="26"/>
-      <c r="AW101" s="26"/>
-      <c r="AX101" s="26"/>
-      <c r="AY101" s="26"/>
-      <c r="AZ101" s="26"/>
-      <c r="BA101" s="27"/>
+      <c r="A101" s="25"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="21"/>
+      <c r="N101" s="21"/>
+      <c r="O101" s="21"/>
+      <c r="P101" s="21"/>
+      <c r="Q101" s="21"/>
+      <c r="R101" s="21"/>
+      <c r="S101" s="21"/>
+      <c r="T101" s="21"/>
+      <c r="U101" s="21"/>
+      <c r="V101" s="21"/>
+      <c r="W101" s="21"/>
+      <c r="X101" s="21"/>
+      <c r="Y101" s="21"/>
+      <c r="Z101" s="21"/>
+      <c r="AA101" s="21"/>
+      <c r="AB101" s="21"/>
+      <c r="AC101" s="21"/>
+      <c r="AD101" s="21"/>
+      <c r="AE101" s="21"/>
+      <c r="AF101" s="21"/>
+      <c r="AG101" s="21"/>
+      <c r="AH101" s="21"/>
+      <c r="AI101" s="21"/>
+      <c r="AJ101" s="21"/>
+      <c r="AK101" s="21"/>
+      <c r="AL101" s="21"/>
+      <c r="AM101" s="21"/>
+      <c r="AN101" s="21"/>
+      <c r="AO101" s="21"/>
+      <c r="AP101" s="21"/>
+      <c r="AQ101" s="21"/>
+      <c r="AR101" s="21"/>
+      <c r="AS101" s="21"/>
+      <c r="AT101" s="21"/>
+      <c r="AU101" s="21"/>
+      <c r="AV101" s="21"/>
+      <c r="AW101" s="21"/>
+      <c r="AX101" s="21"/>
+      <c r="AY101" s="21"/>
+      <c r="AZ101" s="21"/>
+      <c r="BA101" s="22"/>
     </row>
     <row r="102" spans="1:53">
-      <c r="A102" s="29" t="s">
+      <c r="A102" s="25"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="21"/>
+      <c r="O102" s="21"/>
+      <c r="P102" s="21"/>
+      <c r="Q102" s="21"/>
+      <c r="R102" s="21"/>
+      <c r="S102" s="21"/>
+      <c r="T102" s="21"/>
+      <c r="U102" s="21"/>
+      <c r="V102" s="21"/>
+      <c r="W102" s="21"/>
+      <c r="X102" s="21"/>
+      <c r="Y102" s="21"/>
+      <c r="Z102" s="21"/>
+      <c r="AA102" s="21"/>
+      <c r="AB102" s="21"/>
+      <c r="AC102" s="21"/>
+      <c r="AD102" s="21"/>
+      <c r="AE102" s="21"/>
+      <c r="AF102" s="21"/>
+      <c r="AG102" s="21"/>
+      <c r="AH102" s="21"/>
+      <c r="AI102" s="21"/>
+      <c r="AJ102" s="21"/>
+      <c r="AK102" s="21"/>
+      <c r="AL102" s="21"/>
+      <c r="AM102" s="21"/>
+      <c r="AN102" s="21"/>
+      <c r="AO102" s="21"/>
+      <c r="AP102" s="21"/>
+      <c r="AQ102" s="21"/>
+      <c r="AR102" s="21"/>
+      <c r="AS102" s="21"/>
+      <c r="AT102" s="21"/>
+      <c r="AU102" s="21"/>
+      <c r="AV102" s="21"/>
+      <c r="AW102" s="21"/>
+      <c r="AX102" s="21"/>
+      <c r="AY102" s="21"/>
+      <c r="AZ102" s="21"/>
+      <c r="BA102" s="22"/>
+    </row>
+    <row r="103" spans="1:53">
+      <c r="A103" s="25"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="21"/>
+      <c r="P103" s="21"/>
+      <c r="Q103" s="21"/>
+      <c r="R103" s="21"/>
+      <c r="S103" s="21"/>
+      <c r="T103" s="21"/>
+      <c r="U103" s="21"/>
+      <c r="V103" s="21"/>
+      <c r="W103" s="21"/>
+      <c r="X103" s="21"/>
+      <c r="Y103" s="21"/>
+      <c r="Z103" s="21"/>
+      <c r="AA103" s="21"/>
+      <c r="AB103" s="21"/>
+      <c r="AC103" s="21"/>
+      <c r="AD103" s="21"/>
+      <c r="AE103" s="21"/>
+      <c r="AF103" s="21"/>
+      <c r="AG103" s="21"/>
+      <c r="AH103" s="21"/>
+      <c r="AI103" s="21"/>
+      <c r="AJ103" s="21"/>
+      <c r="AK103" s="21"/>
+      <c r="AL103" s="21"/>
+      <c r="AM103" s="21"/>
+      <c r="AN103" s="21"/>
+      <c r="AO103" s="21"/>
+      <c r="AP103" s="21"/>
+      <c r="AQ103" s="21"/>
+      <c r="AR103" s="21"/>
+      <c r="AS103" s="21"/>
+      <c r="AT103" s="21"/>
+      <c r="AU103" s="21"/>
+      <c r="AV103" s="21"/>
+      <c r="AW103" s="21"/>
+      <c r="AX103" s="21"/>
+      <c r="AY103" s="21"/>
+      <c r="AZ103" s="21"/>
+      <c r="BA103" s="22"/>
+    </row>
+    <row r="104" spans="1:53">
+      <c r="A104" s="24"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="26"/>
+      <c r="J104" s="26"/>
+      <c r="K104" s="26"/>
+      <c r="L104" s="26"/>
+      <c r="M104" s="26"/>
+      <c r="N104" s="26"/>
+      <c r="O104" s="26"/>
+      <c r="P104" s="26"/>
+      <c r="Q104" s="26"/>
+      <c r="R104" s="26"/>
+      <c r="S104" s="26"/>
+      <c r="T104" s="26"/>
+      <c r="U104" s="26"/>
+      <c r="V104" s="26"/>
+      <c r="W104" s="26"/>
+      <c r="X104" s="26"/>
+      <c r="Y104" s="26"/>
+      <c r="Z104" s="26"/>
+      <c r="AA104" s="26"/>
+      <c r="AB104" s="26"/>
+      <c r="AC104" s="26"/>
+      <c r="AD104" s="26"/>
+      <c r="AE104" s="26"/>
+      <c r="AF104" s="26"/>
+      <c r="AG104" s="26"/>
+      <c r="AH104" s="26"/>
+      <c r="AI104" s="26"/>
+      <c r="AJ104" s="26"/>
+      <c r="AK104" s="26"/>
+      <c r="AL104" s="26"/>
+      <c r="AM104" s="26"/>
+      <c r="AN104" s="26"/>
+      <c r="AO104" s="26"/>
+      <c r="AP104" s="26"/>
+      <c r="AQ104" s="26"/>
+      <c r="AR104" s="26"/>
+      <c r="AS104" s="26"/>
+      <c r="AT104" s="26"/>
+      <c r="AU104" s="26"/>
+      <c r="AV104" s="26"/>
+      <c r="AW104" s="26"/>
+      <c r="AX104" s="26"/>
+      <c r="AY104" s="26"/>
+      <c r="AZ104" s="26"/>
+      <c r="BA104" s="27"/>
+    </row>
+    <row r="105" spans="1:53">
+      <c r="A105" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B102" s="30"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="31"/>
-      <c r="G102" s="29" t="s">
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="31"/>
+      <c r="G105" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="H102" s="30"/>
-      <c r="I102" s="30"/>
-      <c r="J102" s="30"/>
-      <c r="K102" s="30"/>
-      <c r="L102" s="30"/>
-      <c r="M102" s="30"/>
-      <c r="N102" s="30"/>
-      <c r="O102" s="30"/>
-      <c r="P102" s="31"/>
-      <c r="Q102" s="29" t="s">
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
+      <c r="K105" s="30"/>
+      <c r="L105" s="30"/>
+      <c r="M105" s="30"/>
+      <c r="N105" s="30"/>
+      <c r="O105" s="30"/>
+      <c r="P105" s="31"/>
+      <c r="Q105" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="R102" s="30"/>
-      <c r="S102" s="30"/>
-      <c r="T102" s="30"/>
-      <c r="U102" s="30"/>
-      <c r="V102" s="30"/>
-      <c r="W102" s="30"/>
-      <c r="X102" s="30"/>
-      <c r="Y102" s="30"/>
-      <c r="Z102" s="31"/>
-      <c r="AA102" s="29" t="s">
+      <c r="R105" s="30"/>
+      <c r="S105" s="30"/>
+      <c r="T105" s="30"/>
+      <c r="U105" s="30"/>
+      <c r="V105" s="30"/>
+      <c r="W105" s="30"/>
+      <c r="X105" s="30"/>
+      <c r="Y105" s="30"/>
+      <c r="Z105" s="31"/>
+      <c r="AA105" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="AB102" s="30"/>
-      <c r="AC102" s="30"/>
-      <c r="AD102" s="30"/>
-      <c r="AE102" s="30"/>
-      <c r="AF102" s="30"/>
-      <c r="AG102" s="30"/>
-      <c r="AH102" s="30"/>
-      <c r="AI102" s="30"/>
-      <c r="AJ102" s="30"/>
-      <c r="AK102" s="30"/>
-      <c r="AL102" s="30"/>
-      <c r="AM102" s="30"/>
-      <c r="AN102" s="30"/>
-      <c r="AO102" s="30"/>
-      <c r="AP102" s="30"/>
-      <c r="AQ102" s="30"/>
-      <c r="AR102" s="30"/>
-      <c r="AS102" s="30"/>
-      <c r="AT102" s="30"/>
-      <c r="AU102" s="31"/>
-      <c r="AV102" s="29" t="s">
+      <c r="AB105" s="30"/>
+      <c r="AC105" s="30"/>
+      <c r="AD105" s="30"/>
+      <c r="AE105" s="30"/>
+      <c r="AF105" s="30"/>
+      <c r="AG105" s="30"/>
+      <c r="AH105" s="30"/>
+      <c r="AI105" s="30"/>
+      <c r="AJ105" s="30"/>
+      <c r="AK105" s="30"/>
+      <c r="AL105" s="30"/>
+      <c r="AM105" s="30"/>
+      <c r="AN105" s="30"/>
+      <c r="AO105" s="30"/>
+      <c r="AP105" s="30"/>
+      <c r="AQ105" s="30"/>
+      <c r="AR105" s="30"/>
+      <c r="AS105" s="30"/>
+      <c r="AT105" s="30"/>
+      <c r="AU105" s="31"/>
+      <c r="AV105" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="AW102" s="30"/>
-      <c r="AX102" s="30"/>
-      <c r="AY102" s="30"/>
-      <c r="AZ102" s="30"/>
-      <c r="BA102" s="31"/>
-    </row>
-    <row r="103" spans="1:53">
-      <c r="A103" s="23"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="19"/>
-      <c r="K103" s="19"/>
-      <c r="L103" s="19"/>
-      <c r="M103" s="19"/>
-      <c r="N103" s="19"/>
-      <c r="O103" s="19"/>
-      <c r="P103" s="19"/>
-      <c r="Q103" s="19"/>
-      <c r="R103" s="19"/>
-      <c r="S103" s="19"/>
-      <c r="T103" s="19"/>
-      <c r="U103" s="19"/>
-      <c r="V103" s="19"/>
-      <c r="W103" s="19"/>
-      <c r="X103" s="19"/>
-      <c r="Y103" s="19"/>
-      <c r="Z103" s="19"/>
-      <c r="AA103" s="19"/>
-      <c r="AB103" s="19"/>
-      <c r="AC103" s="19"/>
-      <c r="AD103" s="19"/>
-      <c r="AE103" s="19"/>
-      <c r="AF103" s="19"/>
-      <c r="AG103" s="19"/>
-      <c r="AH103" s="19"/>
-      <c r="AI103" s="19"/>
-      <c r="AJ103" s="19"/>
-      <c r="AK103" s="19"/>
-      <c r="AL103" s="19"/>
-      <c r="AM103" s="19"/>
-      <c r="AN103" s="19"/>
-      <c r="AO103" s="19"/>
-      <c r="AP103" s="19"/>
-      <c r="AQ103" s="19"/>
-      <c r="AR103" s="19"/>
-      <c r="AS103" s="19"/>
-      <c r="AT103" s="19"/>
-      <c r="AU103" s="19"/>
-      <c r="AV103" s="19"/>
-      <c r="AW103" s="19"/>
-      <c r="AX103" s="19"/>
-      <c r="AY103" s="19"/>
-      <c r="AZ103" s="19"/>
-      <c r="BA103" s="20"/>
-    </row>
-    <row r="104" spans="1:53">
-      <c r="A104" s="25"/>
-      <c r="B104" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D104" s="21"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="21"/>
-      <c r="H104" s="21"/>
-      <c r="I104" s="21"/>
-      <c r="J104" s="21"/>
-      <c r="K104" s="21"/>
-      <c r="L104" s="21"/>
-      <c r="M104" s="21"/>
-      <c r="N104" s="21"/>
-      <c r="O104" s="21"/>
-      <c r="P104" s="21"/>
-      <c r="Q104" s="21"/>
-      <c r="R104" s="21"/>
-      <c r="S104" s="21"/>
-      <c r="T104" s="21"/>
-      <c r="U104" s="21"/>
-      <c r="V104" s="21"/>
-      <c r="W104" s="21"/>
-      <c r="X104" s="21"/>
-      <c r="Y104" s="21"/>
-      <c r="Z104" s="21"/>
-      <c r="AA104" s="21"/>
-      <c r="AB104" s="21"/>
-      <c r="AC104" s="21"/>
-      <c r="AD104" s="21"/>
-      <c r="AE104" s="21"/>
-      <c r="AF104" s="21"/>
-      <c r="AG104" s="21"/>
-      <c r="AH104" s="21"/>
-      <c r="AI104" s="21"/>
-      <c r="AJ104" s="21"/>
-      <c r="AK104" s="21"/>
-      <c r="AL104" s="21"/>
-      <c r="AM104" s="21"/>
-      <c r="AN104" s="21"/>
-      <c r="AO104" s="21"/>
-      <c r="AP104" s="21"/>
-      <c r="AQ104" s="21"/>
-      <c r="AR104" s="21"/>
-      <c r="AS104" s="21"/>
-      <c r="AT104" s="21"/>
-      <c r="AU104" s="21"/>
-      <c r="AV104" s="21"/>
-      <c r="AW104" s="21"/>
-      <c r="AX104" s="21"/>
-      <c r="AY104" s="21"/>
-      <c r="AZ104" s="21"/>
-      <c r="BA104" s="22"/>
-    </row>
-    <row r="105" spans="1:53">
-      <c r="A105" s="25"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G105" s="21"/>
-      <c r="H105" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I105" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J105" s="21"/>
-      <c r="K105" s="21"/>
-      <c r="L105" s="21"/>
-      <c r="M105" s="21"/>
-      <c r="N105" s="21"/>
-      <c r="O105" s="21"/>
-      <c r="P105" s="21"/>
-      <c r="Q105" s="21"/>
-      <c r="R105" s="21"/>
-      <c r="S105" s="21"/>
-      <c r="T105" s="21"/>
-      <c r="U105" s="21"/>
-      <c r="V105" s="21"/>
-      <c r="W105" s="21"/>
-      <c r="X105" s="21"/>
-      <c r="Y105" s="21"/>
-      <c r="Z105" s="21"/>
-      <c r="AA105" s="21"/>
-      <c r="AB105" s="21"/>
-      <c r="AC105" s="21"/>
-      <c r="AD105" s="21"/>
-      <c r="AE105" s="21"/>
-      <c r="AF105" s="21"/>
-      <c r="AG105" s="21"/>
-      <c r="AH105" s="21"/>
-      <c r="AI105" s="21"/>
-      <c r="AJ105" s="21"/>
-      <c r="AK105" s="21"/>
-      <c r="AL105" s="21"/>
-      <c r="AM105" s="21"/>
-      <c r="AN105" s="21"/>
-      <c r="AO105" s="21"/>
-      <c r="AP105" s="21"/>
-      <c r="AQ105" s="21"/>
-      <c r="AR105" s="21"/>
-      <c r="AS105" s="21"/>
-      <c r="AT105" s="21"/>
-      <c r="AU105" s="21"/>
-      <c r="AV105" s="21"/>
-      <c r="AW105" s="21"/>
-      <c r="AX105" s="21"/>
-      <c r="AY105" s="21"/>
-      <c r="AZ105" s="21"/>
-      <c r="BA105" s="22"/>
+      <c r="AW105" s="30"/>
+      <c r="AX105" s="30"/>
+      <c r="AY105" s="30"/>
+      <c r="AZ105" s="30"/>
+      <c r="BA105" s="31"/>
     </row>
     <row r="106" spans="1:53">
-      <c r="A106" s="25"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="21"/>
-      <c r="D106" s="21"/>
-      <c r="G106" s="21"/>
-      <c r="J106" s="21"/>
-      <c r="K106" s="21"/>
-      <c r="L106" s="21"/>
-      <c r="M106" s="21"/>
-      <c r="N106" s="21"/>
-      <c r="O106" s="21"/>
-      <c r="P106" s="21"/>
-      <c r="Q106" s="21"/>
-      <c r="R106" s="21"/>
-      <c r="S106" s="21"/>
-      <c r="T106" s="21"/>
-      <c r="U106" s="21"/>
-      <c r="V106" s="21"/>
-      <c r="W106" s="21"/>
-      <c r="X106" s="21"/>
-      <c r="Y106" s="21"/>
-      <c r="Z106" s="21"/>
-      <c r="AA106" s="21"/>
-      <c r="AB106" s="21"/>
-      <c r="AC106" s="21"/>
-      <c r="AD106" s="21"/>
-      <c r="AE106" s="21"/>
-      <c r="AF106" s="21"/>
-      <c r="AG106" s="21"/>
-      <c r="AH106" s="21"/>
-      <c r="AI106" s="21"/>
-      <c r="AJ106" s="21"/>
-      <c r="AK106" s="21"/>
-      <c r="AL106" s="21"/>
-      <c r="AM106" s="21"/>
-      <c r="AN106" s="21"/>
-      <c r="AO106" s="21"/>
-      <c r="AP106" s="21"/>
-      <c r="AQ106" s="21"/>
-      <c r="AR106" s="21"/>
-      <c r="AS106" s="21"/>
-      <c r="AT106" s="21"/>
-      <c r="AU106" s="21"/>
-      <c r="AV106" s="21"/>
-      <c r="AW106" s="21"/>
-      <c r="AX106" s="21"/>
-      <c r="AY106" s="21"/>
-      <c r="AZ106" s="21"/>
-      <c r="BA106" s="22"/>
+      <c r="A106" s="23"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="19"/>
+      <c r="L106" s="19"/>
+      <c r="M106" s="19"/>
+      <c r="N106" s="19"/>
+      <c r="O106" s="19"/>
+      <c r="P106" s="19"/>
+      <c r="Q106" s="19"/>
+      <c r="R106" s="19"/>
+      <c r="S106" s="19"/>
+      <c r="T106" s="19"/>
+      <c r="U106" s="19"/>
+      <c r="V106" s="19"/>
+      <c r="W106" s="19"/>
+      <c r="X106" s="19"/>
+      <c r="Y106" s="19"/>
+      <c r="Z106" s="19"/>
+      <c r="AA106" s="19"/>
+      <c r="AB106" s="19"/>
+      <c r="AC106" s="19"/>
+      <c r="AD106" s="19"/>
+      <c r="AE106" s="19"/>
+      <c r="AF106" s="19"/>
+      <c r="AG106" s="19"/>
+      <c r="AH106" s="19"/>
+      <c r="AI106" s="19"/>
+      <c r="AJ106" s="19"/>
+      <c r="AK106" s="19"/>
+      <c r="AL106" s="19"/>
+      <c r="AM106" s="19"/>
+      <c r="AN106" s="19"/>
+      <c r="AO106" s="19"/>
+      <c r="AP106" s="19"/>
+      <c r="AQ106" s="19"/>
+      <c r="AR106" s="19"/>
+      <c r="AS106" s="19"/>
+      <c r="AT106" s="19"/>
+      <c r="AU106" s="19"/>
+      <c r="AV106" s="19"/>
+      <c r="AW106" s="19"/>
+      <c r="AX106" s="19"/>
+      <c r="AY106" s="19"/>
+      <c r="AZ106" s="19"/>
+      <c r="BA106" s="20"/>
     </row>
     <row r="107" spans="1:53">
       <c r="A107" s="25"/>
       <c r="B107" s="56" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
       <c r="G107" s="21"/>
       <c r="H107" s="21"/>
       <c r="I107" s="21"/>
@@ -14036,14 +14070,14 @@
       <c r="B108" s="21"/>
       <c r="C108" s="21"/>
       <c r="D108" s="21" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="G108" s="21"/>
       <c r="H108" s="21" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="I108" s="21" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="J108" s="21"/>
       <c r="K108" s="21"/>
@@ -14144,10 +14178,10 @@
     <row r="110" spans="1:53">
       <c r="A110" s="25"/>
       <c r="B110" s="56" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="D110" s="21"/>
       <c r="G110" s="21"/>
@@ -14202,12 +14236,16 @@
       <c r="A111" s="25"/>
       <c r="B111" s="21"/>
       <c r="C111" s="21"/>
-      <c r="D111" s="21"/>
-      <c r="E111" s="21"/>
-      <c r="F111" s="21"/>
+      <c r="D111" s="21" t="s">
+        <v>121</v>
+      </c>
       <c r="G111" s="21"/>
-      <c r="H111" s="21"/>
-      <c r="I111" s="21"/>
+      <c r="H111" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I111" s="21" t="s">
+        <v>123</v>
+      </c>
       <c r="J111" s="21"/>
       <c r="K111" s="21"/>
       <c r="L111" s="21"/>
@@ -14253,477 +14291,465 @@
       <c r="AZ111" s="21"/>
       <c r="BA111" s="22"/>
     </row>
-    <row r="112" spans="1:53" s="60" customFormat="1">
-      <c r="A112" s="53"/>
-      <c r="B112" s="56" t="s">
+    <row r="112" spans="1:53">
+      <c r="A112" s="25"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="J112" s="21"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="21"/>
+      <c r="M112" s="21"/>
+      <c r="N112" s="21"/>
+      <c r="O112" s="21"/>
+      <c r="P112" s="21"/>
+      <c r="Q112" s="21"/>
+      <c r="R112" s="21"/>
+      <c r="S112" s="21"/>
+      <c r="T112" s="21"/>
+      <c r="U112" s="21"/>
+      <c r="V112" s="21"/>
+      <c r="W112" s="21"/>
+      <c r="X112" s="21"/>
+      <c r="Y112" s="21"/>
+      <c r="Z112" s="21"/>
+      <c r="AA112" s="21"/>
+      <c r="AB112" s="21"/>
+      <c r="AC112" s="21"/>
+      <c r="AD112" s="21"/>
+      <c r="AE112" s="21"/>
+      <c r="AF112" s="21"/>
+      <c r="AG112" s="21"/>
+      <c r="AH112" s="21"/>
+      <c r="AI112" s="21"/>
+      <c r="AJ112" s="21"/>
+      <c r="AK112" s="21"/>
+      <c r="AL112" s="21"/>
+      <c r="AM112" s="21"/>
+      <c r="AN112" s="21"/>
+      <c r="AO112" s="21"/>
+      <c r="AP112" s="21"/>
+      <c r="AQ112" s="21"/>
+      <c r="AR112" s="21"/>
+      <c r="AS112" s="21"/>
+      <c r="AT112" s="21"/>
+      <c r="AU112" s="21"/>
+      <c r="AV112" s="21"/>
+      <c r="AW112" s="21"/>
+      <c r="AX112" s="21"/>
+      <c r="AY112" s="21"/>
+      <c r="AZ112" s="21"/>
+      <c r="BA112" s="22"/>
+    </row>
+    <row r="113" spans="1:53">
+      <c r="A113" s="25"/>
+      <c r="B113" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="21"/>
+      <c r="J113" s="21"/>
+      <c r="K113" s="21"/>
+      <c r="L113" s="21"/>
+      <c r="M113" s="21"/>
+      <c r="N113" s="21"/>
+      <c r="O113" s="21"/>
+      <c r="P113" s="21"/>
+      <c r="Q113" s="21"/>
+      <c r="R113" s="21"/>
+      <c r="S113" s="21"/>
+      <c r="T113" s="21"/>
+      <c r="U113" s="21"/>
+      <c r="V113" s="21"/>
+      <c r="W113" s="21"/>
+      <c r="X113" s="21"/>
+      <c r="Y113" s="21"/>
+      <c r="Z113" s="21"/>
+      <c r="AA113" s="21"/>
+      <c r="AB113" s="21"/>
+      <c r="AC113" s="21"/>
+      <c r="AD113" s="21"/>
+      <c r="AE113" s="21"/>
+      <c r="AF113" s="21"/>
+      <c r="AG113" s="21"/>
+      <c r="AH113" s="21"/>
+      <c r="AI113" s="21"/>
+      <c r="AJ113" s="21"/>
+      <c r="AK113" s="21"/>
+      <c r="AL113" s="21"/>
+      <c r="AM113" s="21"/>
+      <c r="AN113" s="21"/>
+      <c r="AO113" s="21"/>
+      <c r="AP113" s="21"/>
+      <c r="AQ113" s="21"/>
+      <c r="AR113" s="21"/>
+      <c r="AS113" s="21"/>
+      <c r="AT113" s="21"/>
+      <c r="AU113" s="21"/>
+      <c r="AV113" s="21"/>
+      <c r="AW113" s="21"/>
+      <c r="AX113" s="21"/>
+      <c r="AY113" s="21"/>
+      <c r="AZ113" s="21"/>
+      <c r="BA113" s="22"/>
+    </row>
+    <row r="114" spans="1:53">
+      <c r="A114" s="25"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="21"/>
+      <c r="J114" s="21"/>
+      <c r="K114" s="21"/>
+      <c r="L114" s="21"/>
+      <c r="M114" s="21"/>
+      <c r="N114" s="21"/>
+      <c r="O114" s="21"/>
+      <c r="P114" s="21"/>
+      <c r="Q114" s="21"/>
+      <c r="R114" s="21"/>
+      <c r="S114" s="21"/>
+      <c r="T114" s="21"/>
+      <c r="U114" s="21"/>
+      <c r="V114" s="21"/>
+      <c r="W114" s="21"/>
+      <c r="X114" s="21"/>
+      <c r="Y114" s="21"/>
+      <c r="Z114" s="21"/>
+      <c r="AA114" s="21"/>
+      <c r="AB114" s="21"/>
+      <c r="AC114" s="21"/>
+      <c r="AD114" s="21"/>
+      <c r="AE114" s="21"/>
+      <c r="AF114" s="21"/>
+      <c r="AG114" s="21"/>
+      <c r="AH114" s="21"/>
+      <c r="AI114" s="21"/>
+      <c r="AJ114" s="21"/>
+      <c r="AK114" s="21"/>
+      <c r="AL114" s="21"/>
+      <c r="AM114" s="21"/>
+      <c r="AN114" s="21"/>
+      <c r="AO114" s="21"/>
+      <c r="AP114" s="21"/>
+      <c r="AQ114" s="21"/>
+      <c r="AR114" s="21"/>
+      <c r="AS114" s="21"/>
+      <c r="AT114" s="21"/>
+      <c r="AU114" s="21"/>
+      <c r="AV114" s="21"/>
+      <c r="AW114" s="21"/>
+      <c r="AX114" s="21"/>
+      <c r="AY114" s="21"/>
+      <c r="AZ114" s="21"/>
+      <c r="BA114" s="22"/>
+    </row>
+    <row r="115" spans="1:53" s="60" customFormat="1">
+      <c r="A115" s="53"/>
+      <c r="B115" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="C112" s="49" t="s">
+      <c r="C115" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="D112" s="49"/>
-      <c r="E112" s="49"/>
-      <c r="F112" s="49"/>
-      <c r="G112" s="49"/>
-      <c r="H112" s="49"/>
-      <c r="I112" s="49"/>
-      <c r="J112" s="49"/>
-      <c r="K112" s="49"/>
-      <c r="L112" s="49"/>
-      <c r="M112" s="49"/>
-      <c r="N112" s="49"/>
-      <c r="O112" s="49"/>
-      <c r="P112" s="49"/>
-      <c r="Q112" s="49"/>
-      <c r="R112" s="49"/>
-      <c r="S112" s="49"/>
-      <c r="T112" s="49"/>
-      <c r="U112" s="49"/>
-      <c r="V112" s="49"/>
-      <c r="W112" s="49"/>
-      <c r="X112" s="49"/>
-      <c r="Y112" s="49"/>
-      <c r="Z112" s="49"/>
-      <c r="AA112" s="49"/>
-      <c r="AB112" s="49"/>
-      <c r="AC112" s="49"/>
-      <c r="AD112" s="49"/>
-      <c r="AE112" s="49"/>
-      <c r="AF112" s="49"/>
-      <c r="AG112" s="49"/>
-      <c r="AH112" s="49"/>
-      <c r="AI112" s="49"/>
-      <c r="AJ112" s="49"/>
-      <c r="AK112" s="49"/>
-      <c r="AL112" s="49"/>
-      <c r="AM112" s="49"/>
-      <c r="AN112" s="49"/>
-      <c r="AO112" s="49"/>
-      <c r="AP112" s="49"/>
-      <c r="AQ112" s="49"/>
-      <c r="AR112" s="49"/>
-      <c r="AS112" s="49"/>
-      <c r="AT112" s="49"/>
-      <c r="AU112" s="49"/>
-      <c r="AV112" s="49"/>
-      <c r="AW112" s="49"/>
-      <c r="AX112" s="49"/>
-      <c r="AY112" s="49"/>
-      <c r="AZ112" s="49"/>
-      <c r="BA112" s="50"/>
-    </row>
-    <row r="113" spans="1:53" s="60" customFormat="1">
-      <c r="A113" s="53"/>
-      <c r="B113" s="49"/>
-      <c r="C113" s="49"/>
-      <c r="D113" s="49"/>
-      <c r="E113" s="49"/>
-      <c r="F113" s="49"/>
-      <c r="G113" s="49"/>
-      <c r="H113" s="49"/>
-      <c r="I113" s="49"/>
-      <c r="J113" s="49"/>
-      <c r="K113" s="49"/>
-      <c r="L113" s="49"/>
-      <c r="M113" s="49"/>
-      <c r="N113" s="49"/>
-      <c r="O113" s="49"/>
-      <c r="P113" s="49"/>
-      <c r="Q113" s="49"/>
-      <c r="R113" s="49"/>
-      <c r="S113" s="49"/>
-      <c r="T113" s="49"/>
-      <c r="U113" s="49"/>
-      <c r="V113" s="49"/>
-      <c r="W113" s="49"/>
-      <c r="X113" s="49"/>
-      <c r="Y113" s="49"/>
-      <c r="Z113" s="49"/>
-      <c r="AA113" s="49"/>
-      <c r="AB113" s="49"/>
-      <c r="AC113" s="49"/>
-      <c r="AD113" s="49"/>
-      <c r="AE113" s="49"/>
-      <c r="AF113" s="49"/>
-      <c r="AG113" s="49"/>
-      <c r="AH113" s="49"/>
-      <c r="AI113" s="49"/>
-      <c r="AJ113" s="49"/>
-      <c r="AK113" s="49"/>
-      <c r="AL113" s="49"/>
-      <c r="AM113" s="49"/>
-      <c r="AN113" s="49"/>
-      <c r="AO113" s="49"/>
-      <c r="AP113" s="49"/>
-      <c r="AQ113" s="49"/>
-      <c r="AR113" s="49"/>
-      <c r="AS113" s="49"/>
-      <c r="AT113" s="49"/>
-      <c r="AU113" s="49"/>
-      <c r="AV113" s="49"/>
-      <c r="AW113" s="49"/>
-      <c r="AX113" s="49"/>
-      <c r="AY113" s="49"/>
-      <c r="AZ113" s="49"/>
-      <c r="BA113" s="50"/>
-    </row>
-    <row r="114" spans="1:53">
-      <c r="A114" s="24"/>
-      <c r="B114" s="26"/>
-      <c r="C114" s="26"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="26"/>
-      <c r="G114" s="26"/>
-      <c r="H114" s="26"/>
-      <c r="I114" s="26"/>
-      <c r="J114" s="26"/>
-      <c r="K114" s="26"/>
-      <c r="L114" s="26"/>
-      <c r="M114" s="26"/>
-      <c r="N114" s="26"/>
-      <c r="O114" s="26"/>
-      <c r="P114" s="26"/>
-      <c r="Q114" s="26"/>
-      <c r="R114" s="26"/>
-      <c r="S114" s="26"/>
-      <c r="T114" s="26"/>
-      <c r="U114" s="26"/>
-      <c r="V114" s="26"/>
-      <c r="W114" s="26"/>
-      <c r="X114" s="26"/>
-      <c r="Y114" s="26"/>
-      <c r="Z114" s="26"/>
-      <c r="AA114" s="26"/>
-      <c r="AB114" s="26"/>
-      <c r="AC114" s="26"/>
-      <c r="AD114" s="26"/>
-      <c r="AE114" s="26"/>
-      <c r="AF114" s="26"/>
-      <c r="AG114" s="26"/>
-      <c r="AH114" s="26"/>
-      <c r="AI114" s="26"/>
-      <c r="AJ114" s="26"/>
-      <c r="AK114" s="26"/>
-      <c r="AL114" s="26"/>
-      <c r="AM114" s="26"/>
-      <c r="AN114" s="26"/>
-      <c r="AO114" s="26"/>
-      <c r="AP114" s="26"/>
-      <c r="AQ114" s="26"/>
-      <c r="AR114" s="26"/>
-      <c r="AS114" s="26"/>
-      <c r="AT114" s="26"/>
-      <c r="AU114" s="26"/>
-      <c r="AV114" s="26"/>
-      <c r="AW114" s="26"/>
-      <c r="AX114" s="26"/>
-      <c r="AY114" s="26"/>
-      <c r="AZ114" s="26"/>
-      <c r="BA114" s="27"/>
-    </row>
-    <row r="115" spans="1:53">
-      <c r="A115" s="29" t="s">
+      <c r="D115" s="49"/>
+      <c r="E115" s="49"/>
+      <c r="F115" s="49"/>
+      <c r="G115" s="49"/>
+      <c r="H115" s="49"/>
+      <c r="I115" s="49"/>
+      <c r="J115" s="49"/>
+      <c r="K115" s="49"/>
+      <c r="L115" s="49"/>
+      <c r="M115" s="49"/>
+      <c r="N115" s="49"/>
+      <c r="O115" s="49"/>
+      <c r="P115" s="49"/>
+      <c r="Q115" s="49"/>
+      <c r="R115" s="49"/>
+      <c r="S115" s="49"/>
+      <c r="T115" s="49"/>
+      <c r="U115" s="49"/>
+      <c r="V115" s="49"/>
+      <c r="W115" s="49"/>
+      <c r="X115" s="49"/>
+      <c r="Y115" s="49"/>
+      <c r="Z115" s="49"/>
+      <c r="AA115" s="49"/>
+      <c r="AB115" s="49"/>
+      <c r="AC115" s="49"/>
+      <c r="AD115" s="49"/>
+      <c r="AE115" s="49"/>
+      <c r="AF115" s="49"/>
+      <c r="AG115" s="49"/>
+      <c r="AH115" s="49"/>
+      <c r="AI115" s="49"/>
+      <c r="AJ115" s="49"/>
+      <c r="AK115" s="49"/>
+      <c r="AL115" s="49"/>
+      <c r="AM115" s="49"/>
+      <c r="AN115" s="49"/>
+      <c r="AO115" s="49"/>
+      <c r="AP115" s="49"/>
+      <c r="AQ115" s="49"/>
+      <c r="AR115" s="49"/>
+      <c r="AS115" s="49"/>
+      <c r="AT115" s="49"/>
+      <c r="AU115" s="49"/>
+      <c r="AV115" s="49"/>
+      <c r="AW115" s="49"/>
+      <c r="AX115" s="49"/>
+      <c r="AY115" s="49"/>
+      <c r="AZ115" s="49"/>
+      <c r="BA115" s="50"/>
+    </row>
+    <row r="116" spans="1:53" s="60" customFormat="1">
+      <c r="A116" s="53"/>
+      <c r="B116" s="49"/>
+      <c r="C116" s="49"/>
+      <c r="D116" s="49"/>
+      <c r="E116" s="49"/>
+      <c r="F116" s="49"/>
+      <c r="G116" s="49"/>
+      <c r="H116" s="49"/>
+      <c r="I116" s="49"/>
+      <c r="J116" s="49"/>
+      <c r="K116" s="49"/>
+      <c r="L116" s="49"/>
+      <c r="M116" s="49"/>
+      <c r="N116" s="49"/>
+      <c r="O116" s="49"/>
+      <c r="P116" s="49"/>
+      <c r="Q116" s="49"/>
+      <c r="R116" s="49"/>
+      <c r="S116" s="49"/>
+      <c r="T116" s="49"/>
+      <c r="U116" s="49"/>
+      <c r="V116" s="49"/>
+      <c r="W116" s="49"/>
+      <c r="X116" s="49"/>
+      <c r="Y116" s="49"/>
+      <c r="Z116" s="49"/>
+      <c r="AA116" s="49"/>
+      <c r="AB116" s="49"/>
+      <c r="AC116" s="49"/>
+      <c r="AD116" s="49"/>
+      <c r="AE116" s="49"/>
+      <c r="AF116" s="49"/>
+      <c r="AG116" s="49"/>
+      <c r="AH116" s="49"/>
+      <c r="AI116" s="49"/>
+      <c r="AJ116" s="49"/>
+      <c r="AK116" s="49"/>
+      <c r="AL116" s="49"/>
+      <c r="AM116" s="49"/>
+      <c r="AN116" s="49"/>
+      <c r="AO116" s="49"/>
+      <c r="AP116" s="49"/>
+      <c r="AQ116" s="49"/>
+      <c r="AR116" s="49"/>
+      <c r="AS116" s="49"/>
+      <c r="AT116" s="49"/>
+      <c r="AU116" s="49"/>
+      <c r="AV116" s="49"/>
+      <c r="AW116" s="49"/>
+      <c r="AX116" s="49"/>
+      <c r="AY116" s="49"/>
+      <c r="AZ116" s="49"/>
+      <c r="BA116" s="50"/>
+    </row>
+    <row r="117" spans="1:53">
+      <c r="A117" s="24"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="26"/>
+      <c r="I117" s="26"/>
+      <c r="J117" s="26"/>
+      <c r="K117" s="26"/>
+      <c r="L117" s="26"/>
+      <c r="M117" s="26"/>
+      <c r="N117" s="26"/>
+      <c r="O117" s="26"/>
+      <c r="P117" s="26"/>
+      <c r="Q117" s="26"/>
+      <c r="R117" s="26"/>
+      <c r="S117" s="26"/>
+      <c r="T117" s="26"/>
+      <c r="U117" s="26"/>
+      <c r="V117" s="26"/>
+      <c r="W117" s="26"/>
+      <c r="X117" s="26"/>
+      <c r="Y117" s="26"/>
+      <c r="Z117" s="26"/>
+      <c r="AA117" s="26"/>
+      <c r="AB117" s="26"/>
+      <c r="AC117" s="26"/>
+      <c r="AD117" s="26"/>
+      <c r="AE117" s="26"/>
+      <c r="AF117" s="26"/>
+      <c r="AG117" s="26"/>
+      <c r="AH117" s="26"/>
+      <c r="AI117" s="26"/>
+      <c r="AJ117" s="26"/>
+      <c r="AK117" s="26"/>
+      <c r="AL117" s="26"/>
+      <c r="AM117" s="26"/>
+      <c r="AN117" s="26"/>
+      <c r="AO117" s="26"/>
+      <c r="AP117" s="26"/>
+      <c r="AQ117" s="26"/>
+      <c r="AR117" s="26"/>
+      <c r="AS117" s="26"/>
+      <c r="AT117" s="26"/>
+      <c r="AU117" s="26"/>
+      <c r="AV117" s="26"/>
+      <c r="AW117" s="26"/>
+      <c r="AX117" s="26"/>
+      <c r="AY117" s="26"/>
+      <c r="AZ117" s="26"/>
+      <c r="BA117" s="27"/>
+    </row>
+    <row r="118" spans="1:53">
+      <c r="A118" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B115" s="30"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="30"/>
-      <c r="E115" s="30"/>
-      <c r="F115" s="31"/>
-      <c r="G115" s="29" t="s">
+      <c r="B118" s="30"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="31"/>
+      <c r="G118" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="H115" s="30"/>
-      <c r="I115" s="30"/>
-      <c r="J115" s="30"/>
-      <c r="K115" s="30"/>
-      <c r="L115" s="30"/>
-      <c r="M115" s="30"/>
-      <c r="N115" s="30"/>
-      <c r="O115" s="30"/>
-      <c r="P115" s="31"/>
-      <c r="Q115" s="29" t="s">
+      <c r="H118" s="30"/>
+      <c r="I118" s="30"/>
+      <c r="J118" s="30"/>
+      <c r="K118" s="30"/>
+      <c r="L118" s="30"/>
+      <c r="M118" s="30"/>
+      <c r="N118" s="30"/>
+      <c r="O118" s="30"/>
+      <c r="P118" s="31"/>
+      <c r="Q118" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="R115" s="30"/>
-      <c r="S115" s="30"/>
-      <c r="T115" s="30"/>
-      <c r="U115" s="30"/>
-      <c r="V115" s="30"/>
-      <c r="W115" s="30"/>
-      <c r="X115" s="30"/>
-      <c r="Y115" s="30"/>
-      <c r="Z115" s="31"/>
-      <c r="AA115" s="29" t="s">
+      <c r="R118" s="30"/>
+      <c r="S118" s="30"/>
+      <c r="T118" s="30"/>
+      <c r="U118" s="30"/>
+      <c r="V118" s="30"/>
+      <c r="W118" s="30"/>
+      <c r="X118" s="30"/>
+      <c r="Y118" s="30"/>
+      <c r="Z118" s="31"/>
+      <c r="AA118" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="AB115" s="30"/>
-      <c r="AC115" s="30"/>
-      <c r="AD115" s="30"/>
-      <c r="AE115" s="30"/>
-      <c r="AF115" s="30"/>
-      <c r="AG115" s="30"/>
-      <c r="AH115" s="30"/>
-      <c r="AI115" s="30"/>
-      <c r="AJ115" s="30"/>
-      <c r="AK115" s="30"/>
-      <c r="AL115" s="30"/>
-      <c r="AM115" s="30"/>
-      <c r="AN115" s="30"/>
-      <c r="AO115" s="30"/>
-      <c r="AP115" s="30"/>
-      <c r="AQ115" s="30"/>
-      <c r="AR115" s="30"/>
-      <c r="AS115" s="30"/>
-      <c r="AT115" s="30"/>
-      <c r="AU115" s="31"/>
-      <c r="AV115" s="29" t="s">
+      <c r="AB118" s="30"/>
+      <c r="AC118" s="30"/>
+      <c r="AD118" s="30"/>
+      <c r="AE118" s="30"/>
+      <c r="AF118" s="30"/>
+      <c r="AG118" s="30"/>
+      <c r="AH118" s="30"/>
+      <c r="AI118" s="30"/>
+      <c r="AJ118" s="30"/>
+      <c r="AK118" s="30"/>
+      <c r="AL118" s="30"/>
+      <c r="AM118" s="30"/>
+      <c r="AN118" s="30"/>
+      <c r="AO118" s="30"/>
+      <c r="AP118" s="30"/>
+      <c r="AQ118" s="30"/>
+      <c r="AR118" s="30"/>
+      <c r="AS118" s="30"/>
+      <c r="AT118" s="30"/>
+      <c r="AU118" s="31"/>
+      <c r="AV118" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="AW115" s="30"/>
-      <c r="AX115" s="30"/>
-      <c r="AY115" s="30"/>
-      <c r="AZ115" s="30"/>
-      <c r="BA115" s="31"/>
-    </row>
-    <row r="116" spans="1:53">
-      <c r="A116" s="23"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="19"/>
-      <c r="K116" s="19"/>
-      <c r="L116" s="19"/>
-      <c r="M116" s="19"/>
-      <c r="N116" s="19"/>
-      <c r="O116" s="19"/>
-      <c r="P116" s="19"/>
-      <c r="Q116" s="19"/>
-      <c r="R116" s="19"/>
-      <c r="S116" s="19"/>
-      <c r="T116" s="19"/>
-      <c r="U116" s="19"/>
-      <c r="V116" s="19"/>
-      <c r="W116" s="19"/>
-      <c r="X116" s="19"/>
-      <c r="Y116" s="19"/>
-      <c r="Z116" s="19"/>
-      <c r="AA116" s="19"/>
-      <c r="AB116" s="19"/>
-      <c r="AC116" s="19"/>
-      <c r="AD116" s="19"/>
-      <c r="AE116" s="19"/>
-      <c r="AF116" s="19"/>
-      <c r="AG116" s="19"/>
-      <c r="AH116" s="19"/>
-      <c r="AI116" s="19"/>
-      <c r="AJ116" s="19"/>
-      <c r="AK116" s="19"/>
-      <c r="AL116" s="19"/>
-      <c r="AM116" s="19"/>
-      <c r="AN116" s="19"/>
-      <c r="AO116" s="19"/>
-      <c r="AP116" s="19"/>
-      <c r="AQ116" s="19"/>
-      <c r="AR116" s="19"/>
-      <c r="AS116" s="19"/>
-      <c r="AT116" s="19"/>
-      <c r="AU116" s="19"/>
-      <c r="AV116" s="19"/>
-      <c r="AW116" s="19"/>
-      <c r="AX116" s="19"/>
-      <c r="AY116" s="19"/>
-      <c r="AZ116" s="19"/>
-      <c r="BA116" s="20"/>
-    </row>
-    <row r="117" spans="1:53">
-      <c r="A117" s="25"/>
-      <c r="B117" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C117" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D117" s="21"/>
-      <c r="E117" s="21"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="21"/>
-      <c r="H117" s="21"/>
-      <c r="I117" s="21"/>
-      <c r="J117" s="21"/>
-      <c r="K117" s="21"/>
-      <c r="L117" s="21"/>
-      <c r="M117" s="21"/>
-      <c r="N117" s="21"/>
-      <c r="O117" s="21"/>
-      <c r="P117" s="21"/>
-      <c r="Q117" s="21"/>
-      <c r="R117" s="21"/>
-      <c r="S117" s="21"/>
-      <c r="T117" s="21"/>
-      <c r="U117" s="21"/>
-      <c r="V117" s="21"/>
-      <c r="W117" s="21"/>
-      <c r="X117" s="21"/>
-      <c r="Y117" s="21"/>
-      <c r="Z117" s="21"/>
-      <c r="AA117" s="21"/>
-      <c r="AB117" s="21"/>
-      <c r="AC117" s="21"/>
-      <c r="AD117" s="21"/>
-      <c r="AE117" s="21"/>
-      <c r="AF117" s="21"/>
-      <c r="AG117" s="21"/>
-      <c r="AH117" s="21"/>
-      <c r="AI117" s="21"/>
-      <c r="AJ117" s="21"/>
-      <c r="AK117" s="21"/>
-      <c r="AL117" s="21"/>
-      <c r="AM117" s="21"/>
-      <c r="AN117" s="21"/>
-      <c r="AO117" s="21"/>
-      <c r="AP117" s="21"/>
-      <c r="AQ117" s="21"/>
-      <c r="AR117" s="21"/>
-      <c r="AS117" s="21"/>
-      <c r="AT117" s="21"/>
-      <c r="AU117" s="21"/>
-      <c r="AV117" s="21"/>
-      <c r="AW117" s="21"/>
-      <c r="AX117" s="21"/>
-      <c r="AY117" s="21"/>
-      <c r="AZ117" s="21"/>
-      <c r="BA117" s="22"/>
-    </row>
-    <row r="118" spans="1:53">
-      <c r="A118" s="25"/>
-      <c r="B118" s="21"/>
-      <c r="C118" s="21"/>
-      <c r="D118" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E118" s="21"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="21"/>
-      <c r="H118" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I118" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J118" s="21"/>
-      <c r="K118" s="21"/>
-      <c r="L118" s="21"/>
-      <c r="M118" s="21"/>
-      <c r="N118" s="21"/>
-      <c r="O118" s="21"/>
-      <c r="P118" s="21"/>
-      <c r="Q118" s="21"/>
-      <c r="R118" s="21"/>
-      <c r="S118" s="21"/>
-      <c r="T118" s="21"/>
-      <c r="U118" s="21"/>
-      <c r="V118" s="21"/>
-      <c r="W118" s="21"/>
-      <c r="X118" s="21"/>
-      <c r="Y118" s="21"/>
-      <c r="Z118" s="21"/>
-      <c r="AA118" s="21"/>
-      <c r="AB118" s="21"/>
-      <c r="AC118" s="21"/>
-      <c r="AD118" s="21"/>
-      <c r="AE118" s="21"/>
-      <c r="AF118" s="21"/>
-      <c r="AG118" s="21"/>
-      <c r="AH118" s="21"/>
-      <c r="AI118" s="21"/>
-      <c r="AJ118" s="21"/>
-      <c r="AK118" s="21"/>
-      <c r="AL118" s="21"/>
-      <c r="AM118" s="21"/>
-      <c r="AN118" s="21"/>
-      <c r="AO118" s="21"/>
-      <c r="AP118" s="21"/>
-      <c r="AQ118" s="21"/>
-      <c r="AR118" s="21"/>
-      <c r="AS118" s="21"/>
-      <c r="AT118" s="21"/>
-      <c r="AU118" s="21"/>
-      <c r="AV118" s="21"/>
-      <c r="AW118" s="21"/>
-      <c r="AX118" s="21"/>
-      <c r="AY118" s="21"/>
-      <c r="AZ118" s="21"/>
-      <c r="BA118" s="22"/>
+      <c r="AW118" s="30"/>
+      <c r="AX118" s="30"/>
+      <c r="AY118" s="30"/>
+      <c r="AZ118" s="30"/>
+      <c r="BA118" s="31"/>
     </row>
     <row r="119" spans="1:53">
-      <c r="A119" s="25"/>
-      <c r="B119" s="21"/>
-      <c r="C119" s="21"/>
-      <c r="D119" s="21"/>
-      <c r="E119" s="21"/>
-      <c r="F119" s="21"/>
-      <c r="G119" s="21"/>
-      <c r="H119" s="21"/>
-      <c r="I119" s="21"/>
-      <c r="J119" s="21"/>
-      <c r="K119" s="21"/>
-      <c r="L119" s="21"/>
-      <c r="M119" s="21"/>
-      <c r="N119" s="21"/>
-      <c r="O119" s="21"/>
-      <c r="P119" s="21"/>
-      <c r="Q119" s="21"/>
-      <c r="R119" s="21"/>
-      <c r="S119" s="21"/>
-      <c r="T119" s="21"/>
-      <c r="U119" s="21"/>
-      <c r="V119" s="21"/>
-      <c r="W119" s="21"/>
-      <c r="X119" s="21"/>
-      <c r="Y119" s="21"/>
-      <c r="Z119" s="21"/>
-      <c r="AA119" s="21"/>
-      <c r="AB119" s="21"/>
-      <c r="AC119" s="21"/>
-      <c r="AD119" s="21"/>
-      <c r="AE119" s="21"/>
-      <c r="AF119" s="21"/>
-      <c r="AG119" s="21"/>
-      <c r="AH119" s="21"/>
-      <c r="AI119" s="21"/>
-      <c r="AJ119" s="21"/>
-      <c r="AK119" s="21"/>
-      <c r="AL119" s="21"/>
-      <c r="AM119" s="21"/>
-      <c r="AN119" s="21"/>
-      <c r="AO119" s="21"/>
-      <c r="AP119" s="21"/>
-      <c r="AQ119" s="21"/>
-      <c r="AR119" s="21"/>
-      <c r="AS119" s="21"/>
-      <c r="AT119" s="21"/>
-      <c r="AU119" s="21"/>
-      <c r="AV119" s="21"/>
-      <c r="AW119" s="21"/>
-      <c r="AX119" s="21"/>
-      <c r="AY119" s="21"/>
-      <c r="AZ119" s="21"/>
-      <c r="BA119" s="22"/>
+      <c r="A119" s="23"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="19"/>
+      <c r="K119" s="19"/>
+      <c r="L119" s="19"/>
+      <c r="M119" s="19"/>
+      <c r="N119" s="19"/>
+      <c r="O119" s="19"/>
+      <c r="P119" s="19"/>
+      <c r="Q119" s="19"/>
+      <c r="R119" s="19"/>
+      <c r="S119" s="19"/>
+      <c r="T119" s="19"/>
+      <c r="U119" s="19"/>
+      <c r="V119" s="19"/>
+      <c r="W119" s="19"/>
+      <c r="X119" s="19"/>
+      <c r="Y119" s="19"/>
+      <c r="Z119" s="19"/>
+      <c r="AA119" s="19"/>
+      <c r="AB119" s="19"/>
+      <c r="AC119" s="19"/>
+      <c r="AD119" s="19"/>
+      <c r="AE119" s="19"/>
+      <c r="AF119" s="19"/>
+      <c r="AG119" s="19"/>
+      <c r="AH119" s="19"/>
+      <c r="AI119" s="19"/>
+      <c r="AJ119" s="19"/>
+      <c r="AK119" s="19"/>
+      <c r="AL119" s="19"/>
+      <c r="AM119" s="19"/>
+      <c r="AN119" s="19"/>
+      <c r="AO119" s="19"/>
+      <c r="AP119" s="19"/>
+      <c r="AQ119" s="19"/>
+      <c r="AR119" s="19"/>
+      <c r="AS119" s="19"/>
+      <c r="AT119" s="19"/>
+      <c r="AU119" s="19"/>
+      <c r="AV119" s="19"/>
+      <c r="AW119" s="19"/>
+      <c r="AX119" s="19"/>
+      <c r="AY119" s="19"/>
+      <c r="AZ119" s="19"/>
+      <c r="BA119" s="20"/>
     </row>
     <row r="120" spans="1:53">
       <c r="A120" s="25"/>
       <c r="B120" s="28" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D120" s="21"/>
       <c r="E120" s="21"/>
@@ -14781,16 +14807,16 @@
       <c r="B121" s="21"/>
       <c r="C121" s="21"/>
       <c r="D121" s="21" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E121" s="21"/>
       <c r="F121" s="21"/>
       <c r="G121" s="21"/>
       <c r="H121" s="21" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="I121" s="21" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="J121" s="21"/>
       <c r="K121" s="21"/>
@@ -14895,10 +14921,10 @@
     <row r="123" spans="1:53">
       <c r="A123" s="25"/>
       <c r="B123" s="28" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D123" s="21"/>
       <c r="E123" s="21"/>
@@ -14956,16 +14982,16 @@
       <c r="B124" s="21"/>
       <c r="C124" s="21"/>
       <c r="D124" s="21" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="E124" s="21"/>
       <c r="F124" s="21"/>
       <c r="G124" s="21"/>
       <c r="H124" s="21" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="I124" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J124" s="21"/>
       <c r="K124" s="21"/>
@@ -15016,6 +15042,7 @@
       <c r="A125" s="25"/>
       <c r="B125" s="21"/>
       <c r="C125" s="21"/>
+      <c r="D125" s="21"/>
       <c r="E125" s="21"/>
       <c r="F125" s="21"/>
       <c r="G125" s="21"/>
@@ -15068,12 +15095,14 @@
     </row>
     <row r="126" spans="1:53">
       <c r="A126" s="25"/>
-      <c r="B126" s="46" t="s">
-        <v>44</v>
+      <c r="B126" s="28" t="s">
+        <v>43</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>115</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
       <c r="F126" s="21"/>
       <c r="G126" s="21"/>
       <c r="H126" s="21"/>
@@ -15127,12 +15156,18 @@
       <c r="A127" s="25"/>
       <c r="B127" s="21"/>
       <c r="C127" s="21"/>
-      <c r="D127" s="21"/>
+      <c r="D127" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="E127" s="21"/>
       <c r="F127" s="21"/>
       <c r="G127" s="21"/>
-      <c r="H127" s="21"/>
-      <c r="I127" s="21"/>
+      <c r="H127" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I127" s="21" t="s">
+        <v>125</v>
+      </c>
       <c r="J127" s="21"/>
       <c r="K127" s="21"/>
       <c r="L127" s="21"/>
@@ -15179,334 +15214,335 @@
       <c r="BA127" s="22"/>
     </row>
     <row r="128" spans="1:53">
-      <c r="A128" s="24"/>
-      <c r="B128" s="26"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="26"/>
-      <c r="E128" s="26"/>
-      <c r="F128" s="26"/>
-      <c r="G128" s="26"/>
-      <c r="H128" s="26"/>
-      <c r="I128" s="26"/>
-      <c r="J128" s="26"/>
-      <c r="K128" s="26"/>
-      <c r="L128" s="26"/>
-      <c r="M128" s="26"/>
-      <c r="N128" s="26"/>
-      <c r="O128" s="26"/>
-      <c r="P128" s="26"/>
-      <c r="Q128" s="26"/>
-      <c r="R128" s="26"/>
-      <c r="S128" s="26"/>
-      <c r="T128" s="26"/>
-      <c r="U128" s="26"/>
-      <c r="V128" s="26"/>
-      <c r="W128" s="26"/>
-      <c r="X128" s="26"/>
-      <c r="Y128" s="26"/>
-      <c r="Z128" s="26"/>
-      <c r="AA128" s="26"/>
-      <c r="AB128" s="26"/>
-      <c r="AC128" s="26"/>
-      <c r="AD128" s="26"/>
-      <c r="AE128" s="26"/>
-      <c r="AF128" s="26"/>
-      <c r="AG128" s="26"/>
-      <c r="AH128" s="26"/>
-      <c r="AI128" s="26"/>
-      <c r="AJ128" s="26"/>
-      <c r="AK128" s="26"/>
-      <c r="AL128" s="26"/>
-      <c r="AM128" s="26"/>
-      <c r="AN128" s="26"/>
-      <c r="AO128" s="26"/>
-      <c r="AP128" s="26"/>
-      <c r="AQ128" s="26"/>
-      <c r="AR128" s="26"/>
-      <c r="AS128" s="26"/>
-      <c r="AT128" s="26"/>
-      <c r="AU128" s="26"/>
-      <c r="AV128" s="26"/>
-      <c r="AW128" s="26"/>
-      <c r="AX128" s="26"/>
-      <c r="AY128" s="26"/>
-      <c r="AZ128" s="26"/>
-      <c r="BA128" s="27"/>
+      <c r="A128" s="25"/>
+      <c r="B128" s="21"/>
+      <c r="C128" s="21"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="21"/>
+      <c r="I128" s="21"/>
+      <c r="J128" s="21"/>
+      <c r="K128" s="21"/>
+      <c r="L128" s="21"/>
+      <c r="M128" s="21"/>
+      <c r="N128" s="21"/>
+      <c r="O128" s="21"/>
+      <c r="P128" s="21"/>
+      <c r="Q128" s="21"/>
+      <c r="R128" s="21"/>
+      <c r="S128" s="21"/>
+      <c r="T128" s="21"/>
+      <c r="U128" s="21"/>
+      <c r="V128" s="21"/>
+      <c r="W128" s="21"/>
+      <c r="X128" s="21"/>
+      <c r="Y128" s="21"/>
+      <c r="Z128" s="21"/>
+      <c r="AA128" s="21"/>
+      <c r="AB128" s="21"/>
+      <c r="AC128" s="21"/>
+      <c r="AD128" s="21"/>
+      <c r="AE128" s="21"/>
+      <c r="AF128" s="21"/>
+      <c r="AG128" s="21"/>
+      <c r="AH128" s="21"/>
+      <c r="AI128" s="21"/>
+      <c r="AJ128" s="21"/>
+      <c r="AK128" s="21"/>
+      <c r="AL128" s="21"/>
+      <c r="AM128" s="21"/>
+      <c r="AN128" s="21"/>
+      <c r="AO128" s="21"/>
+      <c r="AP128" s="21"/>
+      <c r="AQ128" s="21"/>
+      <c r="AR128" s="21"/>
+      <c r="AS128" s="21"/>
+      <c r="AT128" s="21"/>
+      <c r="AU128" s="21"/>
+      <c r="AV128" s="21"/>
+      <c r="AW128" s="21"/>
+      <c r="AX128" s="21"/>
+      <c r="AY128" s="21"/>
+      <c r="AZ128" s="21"/>
+      <c r="BA128" s="22"/>
     </row>
     <row r="129" spans="1:53">
-      <c r="A129" s="29"/>
-      <c r="B129" s="30"/>
-      <c r="C129" s="30"/>
-      <c r="D129" s="30"/>
-      <c r="E129" s="30"/>
-      <c r="F129" s="31"/>
-      <c r="G129" s="29"/>
-      <c r="H129" s="30"/>
-      <c r="I129" s="30"/>
-      <c r="J129" s="30"/>
-      <c r="K129" s="30"/>
-      <c r="L129" s="30"/>
-      <c r="M129" s="30"/>
-      <c r="N129" s="30"/>
-      <c r="O129" s="30"/>
-      <c r="P129" s="31"/>
-      <c r="Q129" s="29"/>
-      <c r="R129" s="30"/>
-      <c r="S129" s="30"/>
-      <c r="T129" s="30"/>
-      <c r="U129" s="30"/>
-      <c r="V129" s="30"/>
-      <c r="W129" s="30"/>
-      <c r="X129" s="30"/>
-      <c r="Y129" s="30"/>
-      <c r="Z129" s="31"/>
-      <c r="AA129" s="29"/>
-      <c r="AB129" s="30"/>
-      <c r="AC129" s="30"/>
-      <c r="AD129" s="30"/>
-      <c r="AE129" s="30"/>
-      <c r="AF129" s="30"/>
-      <c r="AG129" s="30"/>
-      <c r="AH129" s="30"/>
-      <c r="AI129" s="30"/>
-      <c r="AJ129" s="30"/>
-      <c r="AK129" s="30"/>
-      <c r="AL129" s="30"/>
-      <c r="AM129" s="30"/>
-      <c r="AN129" s="30"/>
-      <c r="AO129" s="30"/>
-      <c r="AP129" s="30"/>
-      <c r="AQ129" s="30"/>
-      <c r="AR129" s="30"/>
-      <c r="AS129" s="30"/>
-      <c r="AT129" s="30"/>
-      <c r="AU129" s="31"/>
-      <c r="AV129" s="29"/>
-      <c r="AW129" s="30"/>
-      <c r="AX129" s="30"/>
-      <c r="AY129" s="30"/>
-      <c r="AZ129" s="30"/>
-      <c r="BA129" s="31"/>
+      <c r="A129" s="25"/>
+      <c r="B129" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F129" s="21"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="21"/>
+      <c r="I129" s="21"/>
+      <c r="J129" s="21"/>
+      <c r="K129" s="21"/>
+      <c r="L129" s="21"/>
+      <c r="M129" s="21"/>
+      <c r="N129" s="21"/>
+      <c r="O129" s="21"/>
+      <c r="P129" s="21"/>
+      <c r="Q129" s="21"/>
+      <c r="R129" s="21"/>
+      <c r="S129" s="21"/>
+      <c r="T129" s="21"/>
+      <c r="U129" s="21"/>
+      <c r="V129" s="21"/>
+      <c r="W129" s="21"/>
+      <c r="X129" s="21"/>
+      <c r="Y129" s="21"/>
+      <c r="Z129" s="21"/>
+      <c r="AA129" s="21"/>
+      <c r="AB129" s="21"/>
+      <c r="AC129" s="21"/>
+      <c r="AD129" s="21"/>
+      <c r="AE129" s="21"/>
+      <c r="AF129" s="21"/>
+      <c r="AG129" s="21"/>
+      <c r="AH129" s="21"/>
+      <c r="AI129" s="21"/>
+      <c r="AJ129" s="21"/>
+      <c r="AK129" s="21"/>
+      <c r="AL129" s="21"/>
+      <c r="AM129" s="21"/>
+      <c r="AN129" s="21"/>
+      <c r="AO129" s="21"/>
+      <c r="AP129" s="21"/>
+      <c r="AQ129" s="21"/>
+      <c r="AR129" s="21"/>
+      <c r="AS129" s="21"/>
+      <c r="AT129" s="21"/>
+      <c r="AU129" s="21"/>
+      <c r="AV129" s="21"/>
+      <c r="AW129" s="21"/>
+      <c r="AX129" s="21"/>
+      <c r="AY129" s="21"/>
+      <c r="AZ129" s="21"/>
+      <c r="BA129" s="22"/>
     </row>
     <row r="130" spans="1:53">
-      <c r="A130" s="23"/>
-      <c r="B130" s="19"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="19"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="19"/>
-      <c r="K130" s="19"/>
-      <c r="L130" s="19"/>
-      <c r="M130" s="19"/>
-      <c r="N130" s="19"/>
-      <c r="O130" s="19"/>
-      <c r="P130" s="19"/>
-      <c r="Q130" s="19"/>
-      <c r="R130" s="19"/>
-      <c r="S130" s="19"/>
-      <c r="T130" s="19"/>
-      <c r="U130" s="19"/>
-      <c r="V130" s="19"/>
-      <c r="W130" s="19"/>
-      <c r="X130" s="19"/>
-      <c r="Y130" s="19"/>
-      <c r="Z130" s="19"/>
-      <c r="AA130" s="19"/>
-      <c r="AB130" s="19"/>
-      <c r="AC130" s="19"/>
-      <c r="AD130" s="19"/>
-      <c r="AE130" s="19"/>
-      <c r="AF130" s="19"/>
-      <c r="AG130" s="19"/>
-      <c r="AH130" s="19"/>
-      <c r="AI130" s="19"/>
-      <c r="AJ130" s="19"/>
-      <c r="AK130" s="19"/>
-      <c r="AL130" s="19"/>
-      <c r="AM130" s="19"/>
-      <c r="AN130" s="19"/>
-      <c r="AO130" s="19"/>
-      <c r="AP130" s="19"/>
-      <c r="AQ130" s="19"/>
-      <c r="AR130" s="19"/>
-      <c r="AS130" s="19"/>
-      <c r="AT130" s="19"/>
-      <c r="AU130" s="19"/>
-      <c r="AV130" s="19"/>
-      <c r="AW130" s="19"/>
-      <c r="AX130" s="19"/>
-      <c r="AY130" s="19"/>
-      <c r="AZ130" s="19"/>
-      <c r="BA130" s="20"/>
+      <c r="A130" s="25"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="21"/>
+      <c r="I130" s="21"/>
+      <c r="J130" s="21"/>
+      <c r="K130" s="21"/>
+      <c r="L130" s="21"/>
+      <c r="M130" s="21"/>
+      <c r="N130" s="21"/>
+      <c r="O130" s="21"/>
+      <c r="P130" s="21"/>
+      <c r="Q130" s="21"/>
+      <c r="R130" s="21"/>
+      <c r="S130" s="21"/>
+      <c r="T130" s="21"/>
+      <c r="U130" s="21"/>
+      <c r="V130" s="21"/>
+      <c r="W130" s="21"/>
+      <c r="X130" s="21"/>
+      <c r="Y130" s="21"/>
+      <c r="Z130" s="21"/>
+      <c r="AA130" s="21"/>
+      <c r="AB130" s="21"/>
+      <c r="AC130" s="21"/>
+      <c r="AD130" s="21"/>
+      <c r="AE130" s="21"/>
+      <c r="AF130" s="21"/>
+      <c r="AG130" s="21"/>
+      <c r="AH130" s="21"/>
+      <c r="AI130" s="21"/>
+      <c r="AJ130" s="21"/>
+      <c r="AK130" s="21"/>
+      <c r="AL130" s="21"/>
+      <c r="AM130" s="21"/>
+      <c r="AN130" s="21"/>
+      <c r="AO130" s="21"/>
+      <c r="AP130" s="21"/>
+      <c r="AQ130" s="21"/>
+      <c r="AR130" s="21"/>
+      <c r="AS130" s="21"/>
+      <c r="AT130" s="21"/>
+      <c r="AU130" s="21"/>
+      <c r="AV130" s="21"/>
+      <c r="AW130" s="21"/>
+      <c r="AX130" s="21"/>
+      <c r="AY130" s="21"/>
+      <c r="AZ130" s="21"/>
+      <c r="BA130" s="22"/>
     </row>
     <row r="131" spans="1:53">
-      <c r="A131" s="25"/>
-      <c r="B131" s="21"/>
-      <c r="C131" s="21"/>
-      <c r="D131" s="21"/>
-      <c r="E131" s="21"/>
-      <c r="F131" s="21"/>
-      <c r="G131" s="21"/>
-      <c r="H131" s="21"/>
-      <c r="I131" s="21"/>
-      <c r="J131" s="21"/>
-      <c r="K131" s="21"/>
-      <c r="L131" s="21"/>
-      <c r="M131" s="21"/>
-      <c r="N131" s="21"/>
-      <c r="O131" s="21"/>
-      <c r="P131" s="21"/>
-      <c r="Q131" s="21"/>
-      <c r="R131" s="21"/>
-      <c r="S131" s="21"/>
-      <c r="T131" s="21"/>
-      <c r="U131" s="21"/>
-      <c r="V131" s="21"/>
-      <c r="W131" s="21"/>
-      <c r="X131" s="21"/>
-      <c r="Y131" s="21"/>
-      <c r="Z131" s="21"/>
-      <c r="AA131" s="21"/>
-      <c r="AB131" s="21"/>
-      <c r="AC131" s="21"/>
-      <c r="AD131" s="21"/>
-      <c r="AE131" s="21"/>
-      <c r="AF131" s="21"/>
-      <c r="AG131" s="21"/>
-      <c r="AH131" s="21"/>
-      <c r="AI131" s="21"/>
-      <c r="AJ131" s="21"/>
-      <c r="AK131" s="21"/>
-      <c r="AL131" s="21"/>
-      <c r="AM131" s="21"/>
-      <c r="AN131" s="21"/>
-      <c r="AO131" s="21"/>
-      <c r="AP131" s="21"/>
-      <c r="AQ131" s="21"/>
-      <c r="AR131" s="21"/>
-      <c r="AS131" s="21"/>
-      <c r="AT131" s="21"/>
-      <c r="AU131" s="21"/>
-      <c r="AV131" s="21"/>
-      <c r="AW131" s="21"/>
-      <c r="AX131" s="21"/>
-      <c r="AY131" s="21"/>
-      <c r="AZ131" s="21"/>
-      <c r="BA131" s="22"/>
+      <c r="A131" s="24"/>
+      <c r="B131" s="26"/>
+      <c r="C131" s="26"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="26"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="26"/>
+      <c r="I131" s="26"/>
+      <c r="J131" s="26"/>
+      <c r="K131" s="26"/>
+      <c r="L131" s="26"/>
+      <c r="M131" s="26"/>
+      <c r="N131" s="26"/>
+      <c r="O131" s="26"/>
+      <c r="P131" s="26"/>
+      <c r="Q131" s="26"/>
+      <c r="R131" s="26"/>
+      <c r="S131" s="26"/>
+      <c r="T131" s="26"/>
+      <c r="U131" s="26"/>
+      <c r="V131" s="26"/>
+      <c r="W131" s="26"/>
+      <c r="X131" s="26"/>
+      <c r="Y131" s="26"/>
+      <c r="Z131" s="26"/>
+      <c r="AA131" s="26"/>
+      <c r="AB131" s="26"/>
+      <c r="AC131" s="26"/>
+      <c r="AD131" s="26"/>
+      <c r="AE131" s="26"/>
+      <c r="AF131" s="26"/>
+      <c r="AG131" s="26"/>
+      <c r="AH131" s="26"/>
+      <c r="AI131" s="26"/>
+      <c r="AJ131" s="26"/>
+      <c r="AK131" s="26"/>
+      <c r="AL131" s="26"/>
+      <c r="AM131" s="26"/>
+      <c r="AN131" s="26"/>
+      <c r="AO131" s="26"/>
+      <c r="AP131" s="26"/>
+      <c r="AQ131" s="26"/>
+      <c r="AR131" s="26"/>
+      <c r="AS131" s="26"/>
+      <c r="AT131" s="26"/>
+      <c r="AU131" s="26"/>
+      <c r="AV131" s="26"/>
+      <c r="AW131" s="26"/>
+      <c r="AX131" s="26"/>
+      <c r="AY131" s="26"/>
+      <c r="AZ131" s="26"/>
+      <c r="BA131" s="27"/>
     </row>
     <row r="132" spans="1:53">
-      <c r="A132" s="25"/>
-      <c r="B132" s="21"/>
-      <c r="C132" s="21"/>
-      <c r="D132" s="21"/>
-      <c r="E132" s="21"/>
-      <c r="F132" s="21"/>
-      <c r="G132" s="21"/>
-      <c r="H132" s="21"/>
-      <c r="I132" s="21"/>
-      <c r="J132" s="21"/>
-      <c r="K132" s="21"/>
-      <c r="L132" s="21"/>
-      <c r="M132" s="21"/>
-      <c r="N132" s="21"/>
-      <c r="O132" s="21"/>
-      <c r="P132" s="21"/>
-      <c r="Q132" s="21"/>
-      <c r="R132" s="21"/>
-      <c r="S132" s="21"/>
-      <c r="T132" s="21"/>
-      <c r="U132" s="21"/>
-      <c r="V132" s="21"/>
-      <c r="W132" s="21"/>
-      <c r="X132" s="21"/>
-      <c r="Y132" s="21"/>
-      <c r="Z132" s="21"/>
-      <c r="AA132" s="21"/>
-      <c r="AB132" s="21"/>
-      <c r="AC132" s="21"/>
-      <c r="AD132" s="21"/>
-      <c r="AE132" s="21"/>
-      <c r="AF132" s="21"/>
-      <c r="AG132" s="21"/>
-      <c r="AH132" s="21"/>
-      <c r="AI132" s="21"/>
-      <c r="AJ132" s="21"/>
-      <c r="AK132" s="21"/>
-      <c r="AL132" s="21"/>
-      <c r="AM132" s="21"/>
-      <c r="AN132" s="21"/>
-      <c r="AO132" s="21"/>
-      <c r="AP132" s="21"/>
-      <c r="AQ132" s="21"/>
-      <c r="AR132" s="21"/>
-      <c r="AS132" s="21"/>
-      <c r="AT132" s="21"/>
-      <c r="AU132" s="21"/>
-      <c r="AV132" s="21"/>
-      <c r="AW132" s="21"/>
-      <c r="AX132" s="21"/>
-      <c r="AY132" s="21"/>
-      <c r="AZ132" s="21"/>
-      <c r="BA132" s="22"/>
+      <c r="A132" s="29"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="30"/>
+      <c r="F132" s="31"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="30"/>
+      <c r="I132" s="30"/>
+      <c r="J132" s="30"/>
+      <c r="K132" s="30"/>
+      <c r="L132" s="30"/>
+      <c r="M132" s="30"/>
+      <c r="N132" s="30"/>
+      <c r="O132" s="30"/>
+      <c r="P132" s="31"/>
+      <c r="Q132" s="29"/>
+      <c r="R132" s="30"/>
+      <c r="S132" s="30"/>
+      <c r="T132" s="30"/>
+      <c r="U132" s="30"/>
+      <c r="V132" s="30"/>
+      <c r="W132" s="30"/>
+      <c r="X132" s="30"/>
+      <c r="Y132" s="30"/>
+      <c r="Z132" s="31"/>
+      <c r="AA132" s="29"/>
+      <c r="AB132" s="30"/>
+      <c r="AC132" s="30"/>
+      <c r="AD132" s="30"/>
+      <c r="AE132" s="30"/>
+      <c r="AF132" s="30"/>
+      <c r="AG132" s="30"/>
+      <c r="AH132" s="30"/>
+      <c r="AI132" s="30"/>
+      <c r="AJ132" s="30"/>
+      <c r="AK132" s="30"/>
+      <c r="AL132" s="30"/>
+      <c r="AM132" s="30"/>
+      <c r="AN132" s="30"/>
+      <c r="AO132" s="30"/>
+      <c r="AP132" s="30"/>
+      <c r="AQ132" s="30"/>
+      <c r="AR132" s="30"/>
+      <c r="AS132" s="30"/>
+      <c r="AT132" s="30"/>
+      <c r="AU132" s="31"/>
+      <c r="AV132" s="29"/>
+      <c r="AW132" s="30"/>
+      <c r="AX132" s="30"/>
+      <c r="AY132" s="30"/>
+      <c r="AZ132" s="30"/>
+      <c r="BA132" s="31"/>
     </row>
     <row r="133" spans="1:53">
-      <c r="A133" s="25"/>
-      <c r="B133" s="21"/>
-      <c r="C133" s="21"/>
-      <c r="D133" s="21"/>
-      <c r="E133" s="21"/>
-      <c r="F133" s="21"/>
-      <c r="G133" s="21"/>
-      <c r="H133" s="21"/>
-      <c r="I133" s="21"/>
-      <c r="J133" s="21"/>
-      <c r="K133" s="21"/>
-      <c r="L133" s="21"/>
-      <c r="M133" s="21"/>
-      <c r="N133" s="21"/>
-      <c r="O133" s="21"/>
-      <c r="P133" s="21"/>
-      <c r="Q133" s="21"/>
-      <c r="R133" s="21"/>
-      <c r="S133" s="21"/>
-      <c r="T133" s="21"/>
-      <c r="U133" s="21"/>
-      <c r="V133" s="21"/>
-      <c r="W133" s="21"/>
-      <c r="X133" s="21"/>
-      <c r="Y133" s="21"/>
-      <c r="Z133" s="21"/>
-      <c r="AA133" s="21"/>
-      <c r="AB133" s="21"/>
-      <c r="AC133" s="21"/>
-      <c r="AD133" s="21"/>
-      <c r="AE133" s="21"/>
-      <c r="AF133" s="21"/>
-      <c r="AG133" s="21"/>
-      <c r="AH133" s="21"/>
-      <c r="AI133" s="21"/>
-      <c r="AJ133" s="21"/>
-      <c r="AK133" s="21"/>
-      <c r="AL133" s="21"/>
-      <c r="AM133" s="21"/>
-      <c r="AN133" s="21"/>
-      <c r="AO133" s="21"/>
-      <c r="AP133" s="21"/>
-      <c r="AQ133" s="21"/>
-      <c r="AR133" s="21"/>
-      <c r="AS133" s="21"/>
-      <c r="AT133" s="21"/>
-      <c r="AU133" s="21"/>
-      <c r="AV133" s="21"/>
-      <c r="AW133" s="21"/>
-      <c r="AX133" s="21"/>
-      <c r="AY133" s="21"/>
-      <c r="AZ133" s="21"/>
-      <c r="BA133" s="22"/>
+      <c r="A133" s="23"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="19"/>
+      <c r="K133" s="19"/>
+      <c r="L133" s="19"/>
+      <c r="M133" s="19"/>
+      <c r="N133" s="19"/>
+      <c r="O133" s="19"/>
+      <c r="P133" s="19"/>
+      <c r="Q133" s="19"/>
+      <c r="R133" s="19"/>
+      <c r="S133" s="19"/>
+      <c r="T133" s="19"/>
+      <c r="U133" s="19"/>
+      <c r="V133" s="19"/>
+      <c r="W133" s="19"/>
+      <c r="X133" s="19"/>
+      <c r="Y133" s="19"/>
+      <c r="Z133" s="19"/>
+      <c r="AA133" s="19"/>
+      <c r="AB133" s="19"/>
+      <c r="AC133" s="19"/>
+      <c r="AD133" s="19"/>
+      <c r="AE133" s="19"/>
+      <c r="AF133" s="19"/>
+      <c r="AG133" s="19"/>
+      <c r="AH133" s="19"/>
+      <c r="AI133" s="19"/>
+      <c r="AJ133" s="19"/>
+      <c r="AK133" s="19"/>
+      <c r="AL133" s="19"/>
+      <c r="AM133" s="19"/>
+      <c r="AN133" s="19"/>
+      <c r="AO133" s="19"/>
+      <c r="AP133" s="19"/>
+      <c r="AQ133" s="19"/>
+      <c r="AR133" s="19"/>
+      <c r="AS133" s="19"/>
+      <c r="AT133" s="19"/>
+      <c r="AU133" s="19"/>
+      <c r="AV133" s="19"/>
+      <c r="AW133" s="19"/>
+      <c r="AX133" s="19"/>
+      <c r="AY133" s="19"/>
+      <c r="AZ133" s="19"/>
+      <c r="BA133" s="20"/>
     </row>
     <row r="134" spans="1:53">
       <c r="A134" s="25"/>
@@ -15520,7 +15556,7 @@
       <c r="I134" s="21"/>
       <c r="J134" s="21"/>
       <c r="K134" s="21"/>
-      <c r="L134" s="28"/>
+      <c r="L134" s="21"/>
       <c r="M134" s="21"/>
       <c r="N134" s="21"/>
       <c r="O134" s="21"/>
@@ -15685,7 +15721,7 @@
       <c r="I137" s="21"/>
       <c r="J137" s="21"/>
       <c r="K137" s="21"/>
-      <c r="L137" s="21"/>
+      <c r="L137" s="28"/>
       <c r="M137" s="21"/>
       <c r="N137" s="21"/>
       <c r="O137" s="21"/>
@@ -15784,62 +15820,62 @@
       <c r="BA138" s="22"/>
     </row>
     <row r="139" spans="1:53">
-      <c r="A139" s="24"/>
-      <c r="B139" s="26"/>
-      <c r="C139" s="26"/>
-      <c r="D139" s="26"/>
-      <c r="E139" s="26"/>
-      <c r="F139" s="26"/>
-      <c r="G139" s="26"/>
-      <c r="H139" s="26"/>
-      <c r="I139" s="26"/>
-      <c r="J139" s="26"/>
-      <c r="K139" s="26"/>
-      <c r="L139" s="26"/>
-      <c r="M139" s="26"/>
-      <c r="N139" s="26"/>
-      <c r="O139" s="26"/>
-      <c r="P139" s="26"/>
-      <c r="Q139" s="26"/>
-      <c r="R139" s="26"/>
-      <c r="S139" s="26"/>
-      <c r="T139" s="26"/>
-      <c r="U139" s="26"/>
-      <c r="V139" s="26"/>
-      <c r="W139" s="26"/>
-      <c r="X139" s="26"/>
-      <c r="Y139" s="26"/>
-      <c r="Z139" s="26"/>
-      <c r="AA139" s="26"/>
-      <c r="AB139" s="26"/>
-      <c r="AC139" s="26"/>
-      <c r="AD139" s="26"/>
-      <c r="AE139" s="26"/>
-      <c r="AF139" s="26"/>
-      <c r="AG139" s="26"/>
-      <c r="AH139" s="26"/>
-      <c r="AI139" s="26"/>
-      <c r="AJ139" s="26"/>
-      <c r="AK139" s="26"/>
-      <c r="AL139" s="26"/>
-      <c r="AM139" s="26"/>
-      <c r="AN139" s="26"/>
-      <c r="AO139" s="26"/>
-      <c r="AP139" s="26"/>
-      <c r="AQ139" s="26"/>
-      <c r="AR139" s="26"/>
-      <c r="AS139" s="26"/>
-      <c r="AT139" s="26"/>
-      <c r="AU139" s="26"/>
-      <c r="AV139" s="26"/>
-      <c r="AW139" s="26"/>
-      <c r="AX139" s="26"/>
-      <c r="AY139" s="26"/>
-      <c r="AZ139" s="26"/>
-      <c r="BA139" s="27"/>
+      <c r="A139" s="25"/>
+      <c r="B139" s="21"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="21"/>
+      <c r="J139" s="21"/>
+      <c r="K139" s="21"/>
+      <c r="L139" s="21"/>
+      <c r="M139" s="21"/>
+      <c r="N139" s="21"/>
+      <c r="O139" s="21"/>
+      <c r="P139" s="21"/>
+      <c r="Q139" s="21"/>
+      <c r="R139" s="21"/>
+      <c r="S139" s="21"/>
+      <c r="T139" s="21"/>
+      <c r="U139" s="21"/>
+      <c r="V139" s="21"/>
+      <c r="W139" s="21"/>
+      <c r="X139" s="21"/>
+      <c r="Y139" s="21"/>
+      <c r="Z139" s="21"/>
+      <c r="AA139" s="21"/>
+      <c r="AB139" s="21"/>
+      <c r="AC139" s="21"/>
+      <c r="AD139" s="21"/>
+      <c r="AE139" s="21"/>
+      <c r="AF139" s="21"/>
+      <c r="AG139" s="21"/>
+      <c r="AH139" s="21"/>
+      <c r="AI139" s="21"/>
+      <c r="AJ139" s="21"/>
+      <c r="AK139" s="21"/>
+      <c r="AL139" s="21"/>
+      <c r="AM139" s="21"/>
+      <c r="AN139" s="21"/>
+      <c r="AO139" s="21"/>
+      <c r="AP139" s="21"/>
+      <c r="AQ139" s="21"/>
+      <c r="AR139" s="21"/>
+      <c r="AS139" s="21"/>
+      <c r="AT139" s="21"/>
+      <c r="AU139" s="21"/>
+      <c r="AV139" s="21"/>
+      <c r="AW139" s="21"/>
+      <c r="AX139" s="21"/>
+      <c r="AY139" s="21"/>
+      <c r="AZ139" s="21"/>
+      <c r="BA139" s="22"/>
     </row>
     <row r="140" spans="1:53">
-      <c r="A140" s="21"/>
+      <c r="A140" s="25"/>
       <c r="B140" s="21"/>
       <c r="C140" s="21"/>
       <c r="D140" s="21"/>
@@ -15891,10 +15927,10 @@
       <c r="AX140" s="21"/>
       <c r="AY140" s="21"/>
       <c r="AZ140" s="21"/>
-      <c r="BA140" s="21"/>
+      <c r="BA140" s="22"/>
     </row>
     <row r="141" spans="1:53">
-      <c r="A141" s="21"/>
+      <c r="A141" s="25"/>
       <c r="B141" s="21"/>
       <c r="C141" s="21"/>
       <c r="D141" s="21"/>
@@ -15905,7 +15941,7 @@
       <c r="I141" s="21"/>
       <c r="J141" s="21"/>
       <c r="K141" s="21"/>
-      <c r="L141" s="28"/>
+      <c r="L141" s="21"/>
       <c r="M141" s="21"/>
       <c r="N141" s="21"/>
       <c r="O141" s="21"/>
@@ -15946,62 +15982,62 @@
       <c r="AX141" s="21"/>
       <c r="AY141" s="21"/>
       <c r="AZ141" s="21"/>
-      <c r="BA141" s="21"/>
+      <c r="BA141" s="22"/>
     </row>
     <row r="142" spans="1:53">
-      <c r="A142" s="21"/>
-      <c r="B142" s="21"/>
-      <c r="C142" s="21"/>
-      <c r="D142" s="21"/>
-      <c r="E142" s="21"/>
-      <c r="F142" s="21"/>
-      <c r="G142" s="21"/>
-      <c r="H142" s="21"/>
-      <c r="I142" s="21"/>
-      <c r="J142" s="21"/>
-      <c r="K142" s="21"/>
-      <c r="L142" s="21"/>
-      <c r="M142" s="21"/>
-      <c r="N142" s="21"/>
-      <c r="O142" s="21"/>
-      <c r="P142" s="21"/>
-      <c r="Q142" s="21"/>
-      <c r="R142" s="21"/>
-      <c r="S142" s="21"/>
-      <c r="T142" s="21"/>
-      <c r="U142" s="21"/>
-      <c r="V142" s="21"/>
-      <c r="W142" s="21"/>
-      <c r="X142" s="21"/>
-      <c r="Y142" s="21"/>
-      <c r="Z142" s="21"/>
-      <c r="AA142" s="21"/>
-      <c r="AB142" s="21"/>
-      <c r="AC142" s="21"/>
-      <c r="AD142" s="21"/>
-      <c r="AE142" s="21"/>
-      <c r="AF142" s="21"/>
-      <c r="AG142" s="21"/>
-      <c r="AH142" s="21"/>
-      <c r="AI142" s="21"/>
-      <c r="AJ142" s="21"/>
-      <c r="AK142" s="21"/>
-      <c r="AL142" s="21"/>
-      <c r="AM142" s="21"/>
-      <c r="AN142" s="21"/>
-      <c r="AO142" s="21"/>
-      <c r="AP142" s="21"/>
-      <c r="AQ142" s="21"/>
-      <c r="AR142" s="21"/>
-      <c r="AS142" s="21"/>
-      <c r="AT142" s="21"/>
-      <c r="AU142" s="21"/>
-      <c r="AV142" s="21"/>
-      <c r="AW142" s="21"/>
-      <c r="AX142" s="21"/>
-      <c r="AY142" s="21"/>
-      <c r="AZ142" s="21"/>
-      <c r="BA142" s="21"/>
+      <c r="A142" s="24"/>
+      <c r="B142" s="26"/>
+      <c r="C142" s="26"/>
+      <c r="D142" s="26"/>
+      <c r="E142" s="26"/>
+      <c r="F142" s="26"/>
+      <c r="G142" s="26"/>
+      <c r="H142" s="26"/>
+      <c r="I142" s="26"/>
+      <c r="J142" s="26"/>
+      <c r="K142" s="26"/>
+      <c r="L142" s="26"/>
+      <c r="M142" s="26"/>
+      <c r="N142" s="26"/>
+      <c r="O142" s="26"/>
+      <c r="P142" s="26"/>
+      <c r="Q142" s="26"/>
+      <c r="R142" s="26"/>
+      <c r="S142" s="26"/>
+      <c r="T142" s="26"/>
+      <c r="U142" s="26"/>
+      <c r="V142" s="26"/>
+      <c r="W142" s="26"/>
+      <c r="X142" s="26"/>
+      <c r="Y142" s="26"/>
+      <c r="Z142" s="26"/>
+      <c r="AA142" s="26"/>
+      <c r="AB142" s="26"/>
+      <c r="AC142" s="26"/>
+      <c r="AD142" s="26"/>
+      <c r="AE142" s="26"/>
+      <c r="AF142" s="26"/>
+      <c r="AG142" s="26"/>
+      <c r="AH142" s="26"/>
+      <c r="AI142" s="26"/>
+      <c r="AJ142" s="26"/>
+      <c r="AK142" s="26"/>
+      <c r="AL142" s="26"/>
+      <c r="AM142" s="26"/>
+      <c r="AN142" s="26"/>
+      <c r="AO142" s="26"/>
+      <c r="AP142" s="26"/>
+      <c r="AQ142" s="26"/>
+      <c r="AR142" s="26"/>
+      <c r="AS142" s="26"/>
+      <c r="AT142" s="26"/>
+      <c r="AU142" s="26"/>
+      <c r="AV142" s="26"/>
+      <c r="AW142" s="26"/>
+      <c r="AX142" s="26"/>
+      <c r="AY142" s="26"/>
+      <c r="AZ142" s="26"/>
+      <c r="BA142" s="27"/>
     </row>
     <row r="143" spans="1:53">
       <c r="A143" s="21"/>
@@ -16070,7 +16106,7 @@
       <c r="I144" s="21"/>
       <c r="J144" s="21"/>
       <c r="K144" s="21"/>
-      <c r="L144" s="21"/>
+      <c r="L144" s="28"/>
       <c r="M144" s="21"/>
       <c r="N144" s="21"/>
       <c r="O144" s="21"/>
@@ -16498,6 +16534,171 @@
       <c r="AZ151" s="21"/>
       <c r="BA151" s="21"/>
     </row>
+    <row r="152" spans="1:53">
+      <c r="A152" s="21"/>
+      <c r="B152" s="21"/>
+      <c r="C152" s="21"/>
+      <c r="D152" s="21"/>
+      <c r="E152" s="21"/>
+      <c r="F152" s="21"/>
+      <c r="G152" s="21"/>
+      <c r="H152" s="21"/>
+      <c r="I152" s="21"/>
+      <c r="J152" s="21"/>
+      <c r="K152" s="21"/>
+      <c r="L152" s="21"/>
+      <c r="M152" s="21"/>
+      <c r="N152" s="21"/>
+      <c r="O152" s="21"/>
+      <c r="P152" s="21"/>
+      <c r="Q152" s="21"/>
+      <c r="R152" s="21"/>
+      <c r="S152" s="21"/>
+      <c r="T152" s="21"/>
+      <c r="U152" s="21"/>
+      <c r="V152" s="21"/>
+      <c r="W152" s="21"/>
+      <c r="X152" s="21"/>
+      <c r="Y152" s="21"/>
+      <c r="Z152" s="21"/>
+      <c r="AA152" s="21"/>
+      <c r="AB152" s="21"/>
+      <c r="AC152" s="21"/>
+      <c r="AD152" s="21"/>
+      <c r="AE152" s="21"/>
+      <c r="AF152" s="21"/>
+      <c r="AG152" s="21"/>
+      <c r="AH152" s="21"/>
+      <c r="AI152" s="21"/>
+      <c r="AJ152" s="21"/>
+      <c r="AK152" s="21"/>
+      <c r="AL152" s="21"/>
+      <c r="AM152" s="21"/>
+      <c r="AN152" s="21"/>
+      <c r="AO152" s="21"/>
+      <c r="AP152" s="21"/>
+      <c r="AQ152" s="21"/>
+      <c r="AR152" s="21"/>
+      <c r="AS152" s="21"/>
+      <c r="AT152" s="21"/>
+      <c r="AU152" s="21"/>
+      <c r="AV152" s="21"/>
+      <c r="AW152" s="21"/>
+      <c r="AX152" s="21"/>
+      <c r="AY152" s="21"/>
+      <c r="AZ152" s="21"/>
+      <c r="BA152" s="21"/>
+    </row>
+    <row r="153" spans="1:53">
+      <c r="A153" s="21"/>
+      <c r="B153" s="21"/>
+      <c r="C153" s="21"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="21"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="21"/>
+      <c r="H153" s="21"/>
+      <c r="I153" s="21"/>
+      <c r="J153" s="21"/>
+      <c r="K153" s="21"/>
+      <c r="L153" s="21"/>
+      <c r="M153" s="21"/>
+      <c r="N153" s="21"/>
+      <c r="O153" s="21"/>
+      <c r="P153" s="21"/>
+      <c r="Q153" s="21"/>
+      <c r="R153" s="21"/>
+      <c r="S153" s="21"/>
+      <c r="T153" s="21"/>
+      <c r="U153" s="21"/>
+      <c r="V153" s="21"/>
+      <c r="W153" s="21"/>
+      <c r="X153" s="21"/>
+      <c r="Y153" s="21"/>
+      <c r="Z153" s="21"/>
+      <c r="AA153" s="21"/>
+      <c r="AB153" s="21"/>
+      <c r="AC153" s="21"/>
+      <c r="AD153" s="21"/>
+      <c r="AE153" s="21"/>
+      <c r="AF153" s="21"/>
+      <c r="AG153" s="21"/>
+      <c r="AH153" s="21"/>
+      <c r="AI153" s="21"/>
+      <c r="AJ153" s="21"/>
+      <c r="AK153" s="21"/>
+      <c r="AL153" s="21"/>
+      <c r="AM153" s="21"/>
+      <c r="AN153" s="21"/>
+      <c r="AO153" s="21"/>
+      <c r="AP153" s="21"/>
+      <c r="AQ153" s="21"/>
+      <c r="AR153" s="21"/>
+      <c r="AS153" s="21"/>
+      <c r="AT153" s="21"/>
+      <c r="AU153" s="21"/>
+      <c r="AV153" s="21"/>
+      <c r="AW153" s="21"/>
+      <c r="AX153" s="21"/>
+      <c r="AY153" s="21"/>
+      <c r="AZ153" s="21"/>
+      <c r="BA153" s="21"/>
+    </row>
+    <row r="154" spans="1:53">
+      <c r="A154" s="21"/>
+      <c r="B154" s="21"/>
+      <c r="C154" s="21"/>
+      <c r="D154" s="21"/>
+      <c r="E154" s="21"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="21"/>
+      <c r="I154" s="21"/>
+      <c r="J154" s="21"/>
+      <c r="K154" s="21"/>
+      <c r="L154" s="21"/>
+      <c r="M154" s="21"/>
+      <c r="N154" s="21"/>
+      <c r="O154" s="21"/>
+      <c r="P154" s="21"/>
+      <c r="Q154" s="21"/>
+      <c r="R154" s="21"/>
+      <c r="S154" s="21"/>
+      <c r="T154" s="21"/>
+      <c r="U154" s="21"/>
+      <c r="V154" s="21"/>
+      <c r="W154" s="21"/>
+      <c r="X154" s="21"/>
+      <c r="Y154" s="21"/>
+      <c r="Z154" s="21"/>
+      <c r="AA154" s="21"/>
+      <c r="AB154" s="21"/>
+      <c r="AC154" s="21"/>
+      <c r="AD154" s="21"/>
+      <c r="AE154" s="21"/>
+      <c r="AF154" s="21"/>
+      <c r="AG154" s="21"/>
+      <c r="AH154" s="21"/>
+      <c r="AI154" s="21"/>
+      <c r="AJ154" s="21"/>
+      <c r="AK154" s="21"/>
+      <c r="AL154" s="21"/>
+      <c r="AM154" s="21"/>
+      <c r="AN154" s="21"/>
+      <c r="AO154" s="21"/>
+      <c r="AP154" s="21"/>
+      <c r="AQ154" s="21"/>
+      <c r="AR154" s="21"/>
+      <c r="AS154" s="21"/>
+      <c r="AT154" s="21"/>
+      <c r="AU154" s="21"/>
+      <c r="AV154" s="21"/>
+      <c r="AW154" s="21"/>
+      <c r="AX154" s="21"/>
+      <c r="AY154" s="21"/>
+      <c r="AZ154" s="21"/>
+      <c r="BA154" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="W1:Z1"/>
